--- a/sequences/29_localizer.xlsx
+++ b/sequences/29_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
   </si>
   <si>
     <t>dog/dog011.png</t>
   </si>
   <si>
-    <t>flower/flower005.png</t>
+    <t>dog/dog006.png</t>
   </si>
   <si>
     <t>car/car006.png</t>
   </si>
   <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
     <t>dog/dog012.png</t>
   </si>
   <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
+    <t>face/face010.png</t>
   </si>
   <si>
     <t>face/face013.png</t>
   </si>
   <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
   </si>
   <si>
     <t>dog/dog015.png</t>
   </si>
   <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
     <t>dog/dog010.png</t>
   </si>
   <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
   </si>
   <si>
     <t>flower/flower016.png</t>
   </si>
   <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
     <t>flower/flower020.png</t>
   </si>
   <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
     <t>face/face021.png</t>
   </si>
   <si>
     <t>flower/flower025.png</t>
   </si>
   <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
     <t>dog/dog027.png</t>
   </si>
   <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
   </si>
   <si>
     <t>face/face039.png</t>
   </si>
   <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
   </si>
   <si>
     <t>face/face037.png</t>
   </si>
   <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
   </si>
   <si>
     <t>flower/flower048.png</t>
   </si>
   <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
     <t>face/face049.png</t>
   </si>
   <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
   </si>
   <si>
     <t>flower/flower061.png</t>
   </si>
   <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
     <t>flower/flower051.png</t>
   </si>
   <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
     <t>flower/flower050.png</t>
   </si>
   <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
   </si>
   <si>
     <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.582731868717053</v>
+        <v>1.350126740613731</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.332970715124459</v>
+        <v>1.50777604243957</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.764151708628665</v>
+        <v>1.36571441471312</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.554856221240419</v>
+        <v>1.831621710496915</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.401396457825211</v>
+        <v>1.418570497831121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.748895968985347</v>
+        <v>1.550918310858352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.593232916622596</v>
+        <v>1.524155937846043</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.526339217475909</v>
+        <v>1.33881455125466</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.488947311802632</v>
+        <v>1.520858177145429</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.461586107246056</v>
+        <v>1.448723809501952</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.446681060203517</v>
+        <v>1.283576432424482</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.370266242747359</v>
+        <v>1.637929337047457</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.575055664453717</v>
+        <v>1.597128843307534</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.330619278385585</v>
+        <v>1.457597114600869</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.249248153311648</v>
+        <v>1.546381682411601</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.497675163580033</v>
+        <v>1.481055504785834</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.650758504230693</v>
+        <v>1.395604036833616</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.591022270437275</v>
+        <v>1.511037165258333</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1.39143016108005</v>
+        <v>1.198869685636379</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.419706264630112</v>
+        <v>1.398822356433272</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.693913829984952</v>
+        <v>1.404284133471864</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1.584633691687237</v>
+        <v>1.582246561693776</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.352518043516113</v>
+        <v>1.544986639245689</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.766828652887519</v>
+        <v>1.56248461197473</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.61582783084784</v>
+        <v>1.522285268760059</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.40748009315323</v>
+        <v>1.512765013396694</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.836374720201977</v>
+        <v>1.711468129308579</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.711246712686049</v>
+        <v>1.32091506495516</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.640566529824084</v>
+        <v>1.547161101485741</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.290212858724006</v>
+        <v>1.502899598674118</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.572648340588699</v>
+        <v>1.457636155192977</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.268699325828461</v>
+        <v>1.477101946247727</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.364331118856895</v>
+        <v>1.33391191719716</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.624469414861513</v>
+        <v>1.553619844523193</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.676617655566229</v>
+        <v>1.525455640499393</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.314300198805253</v>
+        <v>1.671751559657634</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.707767923287799</v>
+        <v>1.59078601272019</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.298926759568597</v>
+        <v>1.535079239610625</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.516751635373147</v>
+        <v>1.436166587682102</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.251963615346144</v>
+        <v>1.542182368476814</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.583715134804558</v>
+        <v>1.536402639346649</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.360524727026811</v>
+        <v>1.3057042076156</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.431156692790307</v>
+        <v>1.180029702727997</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.538912577797892</v>
+        <v>1.520701654525505</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.386836802035614</v>
+        <v>1.55672800610286</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.507457422325071</v>
+        <v>1.327561075488488</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.665159635837456</v>
+        <v>1.564324933101549</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.501541064592262</v>
+        <v>1.524511208244957</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.779313402544193</v>
+        <v>1.533207955372786</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.398590290402614</v>
+        <v>1.587000758533589</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.644062921548568</v>
+        <v>1.330924058391269</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.626780346097072</v>
+        <v>1.491889019656901</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.490432276205075</v>
+        <v>1.544890701744873</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.587800130000456</v>
+        <v>1.472947353638015</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.610221547050169</v>
+        <v>1.606265390231168</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.440535050235971</v>
+        <v>1.327507913800552</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.617425716423596</v>
+        <v>1.609408760425455</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.684069284343213</v>
+        <v>1.694649658246564</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.515730534035255</v>
+        <v>1.56680494857485</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.695152129845364</v>
+        <v>1.279336955872075</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.714936813841717</v>
+        <v>1.619174832286745</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.835873062041507</v>
+        <v>1.471713642529954</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.406147941136985</v>
+        <v>1.448975695008455</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.61715475319972</v>
+        <v>1.717261487915791</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.549617904981747</v>
+        <v>1.415021592546987</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.765388787934718</v>
+        <v>1.602652156681533</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.452440528490668</v>
+        <v>1.409354048488311</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.310939400632485</v>
+        <v>1.69657112640338</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.510693063059882</v>
+        <v>1.451730974557807</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.596429307264636</v>
+        <v>1.336191158789547</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.482042399460518</v>
+        <v>1.355461049117615</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.535946433751597</v>
+        <v>1.450467166453101</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.623659690850588</v>
+        <v>1.350698167944832</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.487951888573791</v>
+        <v>1.708424296357099</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.545194957355583</v>
+        <v>1.518418965401415</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.64290842072799</v>
+        <v>1.738521560858302</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.431596969850267</v>
+        <v>1.547089136764533</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.597897733631858</v>
+        <v>1.544192736696558</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>1.209006820992479</v>
+        <v>1.475985148184924</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.287310838515377</v>
+        <v>1.626782768263595</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.592799624637117</v>
+        <v>1.40884086536385</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.476743940659258</v>
+        <v>1.371177771637153</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.477661419148757</v>
+        <v>1.406655202480388</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>1.446333176080703</v>
+        <v>1.56218704366065</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.499425764106201</v>
+        <v>1.553288044027271</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.673338828408655</v>
+        <v>1.402686604142318</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.839870969788984</v>
+        <v>1.660901636943118</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.383923535491151</v>
+        <v>1.314883685060676</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.401927255341105</v>
+        <v>1.715327951508737</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.592299455247406</v>
+        <v>1.451466883894505</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.520116654630477</v>
+        <v>1.45755393619501</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.428169943739845</v>
+        <v>1.681775689266222</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.44712934613401</v>
+        <v>1.624355466457916</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.748417480933187</v>
+        <v>1.217176136220693</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.198571440316942</v>
+        <v>1.585902041728602</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.605889835063535</v>
+        <v>1.448469250357296</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.617747677383477</v>
+        <v>1.504452400976969</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.446020739110887</v>
+        <v>1.769246856716717</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.367826054581452</v>
+        <v>1.554674224995902</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.275362288502026</v>
+        <v>1.472148039829293</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.217201059284683</v>
+        <v>1.532409646688308</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.511877425509947</v>
+        <v>1.499869526602663</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.73884168292719</v>
+        <v>1.829629513810795</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.720478459381373</v>
+        <v>1.404749812160375</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.627128829967951</v>
+        <v>1.799192786028361</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.259970647240862</v>
+        <v>1.423270439433381</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.404347677090531</v>
+        <v>1.389585259571334</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.45939498157749</v>
+        <v>1.428479287995418</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.239186818025499</v>
+        <v>1.365490600444401</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.832818808660883</v>
+        <v>1.649280874752641</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.27422014142545</v>
+        <v>1.66803805575077</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.715950004516202</v>
+        <v>1.479574253038339</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.735024216781045</v>
+        <v>1.418014347204674</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.293836919041118</v>
+        <v>1.538984712234686</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.686724030445379</v>
+        <v>1.397537575341334</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.643601765747948</v>
+        <v>1.377593402772683</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.359142415802915</v>
+        <v>1.37846717355918</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.415725857148073</v>
+        <v>1.296236669151631</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.519850775849056</v>
+        <v>1.396508712754186</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.464672499473412</v>
+        <v>1.13633822740385</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.354353705758881</v>
+        <v>1.506290253586282</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.493108937226003</v>
+        <v>1.404250931139736</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.485943287699284</v>
+        <v>1.540702350761942</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.674263933453277</v>
+        <v>1.43184941436198</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.858872356500062</v>
+        <v>1.462002007923967</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.608478439126094</v>
+        <v>1.53286014242204</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.594986732903217</v>
+        <v>1.833253566258164</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.414707402936904</v>
+        <v>1.143243699844184</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.281462628332798</v>
+        <v>1.687952420358669</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.659749315642368</v>
+        <v>1.320541838380901</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.601386990806229</v>
+        <v>1.605663686615624</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.641549458651337</v>
+        <v>1.623879235809697</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.429128073938755</v>
+        <v>1.446475096150484</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.88944622414703</v>
+        <v>1.787195317679635</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.647443782627951</v>
+        <v>1.43334668288201</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.694665355435701</v>
+        <v>1.437616308827691</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.489305510906895</v>
+        <v>1.394385881143617</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.614379107698636</v>
+        <v>1.52829474005329</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.395856734287848</v>
+        <v>1.432932305656249</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.500938429636116</v>
+        <v>1.473219885105762</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.679476371202185</v>
+        <v>1.298366131033454</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.591024073272253</v>
+        <v>1.691531582899941</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.391404695215607</v>
+        <v>1.594411078861869</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.471246975116968</v>
+        <v>1.669126874675435</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.573823263772265</v>
+        <v>1.548996180425354</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.573812699310762</v>
+        <v>1.226378982612667</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.521781705899984</v>
+        <v>1.612945677950085</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.532592549947247</v>
+        <v>1.428508466002434</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.464207462531027</v>
+        <v>1.649588260132103</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.384868011187538</v>
+        <v>1.407826318685919</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.431689839461594</v>
+        <v>1.966837875365698</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.506989059196206</v>
+        <v>1.475918668696721</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.672648112893864</v>
+        <v>1.513701932315256</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.681695058115079</v>
+        <v>1.558879062007754</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.417380759803316</v>
+        <v>1.629946181140461</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.277247599288019</v>
+        <v>1.55878928163753</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.39687041197371</v>
+        <v>1.580719337660275</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.586647327018393</v>
+        <v>1.640290050000874</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.285995888474067</v>
+        <v>1.435812527234318</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.386036398538865</v>
+        <v>1.309714931937022</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.335729734772289</v>
+        <v>1.484175768837773</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.285238917857954</v>
+        <v>1.392480800421935</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.468412816289759</v>
+        <v>1.46791255181643</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.418899754932379</v>
+        <v>1.479985488032826</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.194917514146697</v>
+        <v>1.423542092673485</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.63351287152359</v>
+        <v>1.475948584575796</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.46166716042063</v>
+        <v>1.622658355963896</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.57346919765024</v>
+        <v>1.574885032523476</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.402166049896074</v>
+        <v>1.389608113454557</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.530715915522373</v>
+        <v>1.603447132209088</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.490396119338708</v>
+        <v>1.415877132393814</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.26362535584808</v>
+        <v>1.346094190806916</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.464550407325159</v>
+        <v>1.57678307110946</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.52667430066634</v>
+        <v>1.383272874760826</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.916666181038575</v>
+        <v>1.645053144648688</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.607287508759476</v>
+        <v>1.288750133048242</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.344166967320748</v>
+        <v>1.43697442406019</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.551916744434161</v>
+        <v>1.318476108301237</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.687365637186002</v>
+        <v>1.418636843378645</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.495240268270004</v>
+        <v>1.179297265399402</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.44188763610568</v>
+        <v>1.262124679921741</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.529710156333264</v>
+        <v>1.518819397382869</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.506903616229894</v>
+        <v>1.355761203968342</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.51778259655885</v>
+        <v>1.502039471329324</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.786953945897065</v>
+        <v>1.600081950756826</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.62541372096267</v>
+        <v>1.191760386912292</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.802116642770288</v>
+        <v>1.510805800787827</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.546706727606416</v>
+        <v>1.365231257656168</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.543623143872751</v>
+        <v>1.716559467836967</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.419691711071769</v>
+        <v>1.52173808682338</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.520903984201393</v>
+        <v>1.695503354733975</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.687172250848165</v>
+        <v>1.605146186228446</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.48293054374906</v>
+        <v>1.525016592993578</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.394616048172421</v>
+        <v>1.366566700226115</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.49201654541532</v>
+        <v>1.57912978795842</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.697082702386998</v>
+        <v>1.384732092130672</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.515666642679799</v>
+        <v>1.377103511377412</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.615063465497126</v>
+        <v>1.795410135188226</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.24896157111723</v>
+        <v>1.675221276389355</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.329202921398459</v>
+        <v>1.49419480435274</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.308006352946811</v>
+        <v>1.357824121167264</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.644792959334365</v>
+        <v>1.692711644387223</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.183188683380863</v>
+        <v>1.639075571272646</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.483609013478556</v>
+        <v>1.572212630937527</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.574005551031853</v>
+        <v>1.532914515969092</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.483128375492984</v>
+        <v>1.696226600988869</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.809696755222101</v>
+        <v>1.635144631064364</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.337855515104258</v>
+        <v>1.632918779974645</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.516211566114648</v>
+        <v>1.648851699474417</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.302074059310482</v>
+        <v>1.637668458636547</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.352961061003391</v>
+        <v>1.694044138666943</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.227886891952654</v>
+        <v>1.392408644045544</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.37218737570154</v>
+        <v>1.435431890272505</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.532027004029189</v>
+        <v>1.505428537375943</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.165795411535262</v>
+        <v>1.6206772795443</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.65328707791348</v>
+        <v>1.318218287554061</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.382599595098543</v>
+        <v>1.149660147888182</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.469966235895924</v>
+        <v>1.696839764865464</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.481158484581459</v>
+        <v>1.449200405883073</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.293000831228367</v>
+        <v>1.453166235489128</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.59448758219491</v>
+        <v>1.554100310221004</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.587627424294907</v>
+        <v>1.703517433379657</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.539256873239885</v>
+        <v>1.45914865443246</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.730094334992274</v>
+        <v>1.510685309192048</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.4780970160422</v>
+        <v>1.494897039436731</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.359563247199582</v>
+        <v>1.218134400582357</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.240964584791313</v>
+        <v>1.341893239476948</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.37481547289427</v>
+        <v>1.586147820049163</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.750213286181907</v>
+        <v>1.656596749528636</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.574751174620844</v>
+        <v>1.390056013566334</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.671710563396158</v>
+        <v>1.476561308419781</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.363369477628161</v>
+        <v>1.408866091548525</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.645911503385844</v>
+        <v>1.584474456664262</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.83503359670942</v>
+        <v>1.602545394563905</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.54138250853111</v>
+        <v>1.359622972712755</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.393526123453545</v>
+        <v>1.368493186879939</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.611625903785876</v>
+        <v>1.536620325053797</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.456316621276149</v>
+        <v>1.448469978571614</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.543862007675789</v>
+        <v>1.653580519079626</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>1.767790368006688</v>
+        <v>1.447761586307592</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.361498299660249</v>
+        <v>1.492956233272278</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.383502401553896</v>
+        <v>1.61738720917408</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.356724505676728</v>
+        <v>1.487678170576772</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.487452414556537</v>
+        <v>1.49036877546421</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.506198955031809</v>
+        <v>1.40602771842641</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.664827363625444</v>
+        <v>1.548025815302324</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.417443464911322</v>
+        <v>1.726314780976345</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.570344516012357</v>
+        <v>1.834324104281513</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.685128767959455</v>
+        <v>1.561151739209197</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.465400432788968</v>
+        <v>1.235628369222994</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.368443695216188</v>
+        <v>1.516698949632085</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.720839001329618</v>
+        <v>1.399477489883494</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.693828192620872</v>
+        <v>1.481537996784326</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.750452698946775</v>
+        <v>1.744002976839352</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.525476619468053</v>
+        <v>1.48241384025097</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.815034926984368</v>
+        <v>1.306379163173505</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/29_localizer.xlsx
+++ b/sequences/29_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.350126740613731</v>
+        <v>1.57917494660977</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.50777604243957</v>
+        <v>1.747811613601866</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.36571441471312</v>
+        <v>1.397753418369581</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.831621710496915</v>
+        <v>1.606887898574086</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.418570497831121</v>
+        <v>1.410431728921452</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.550918310858352</v>
+        <v>1.436665196416309</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.524155937846043</v>
+        <v>1.645307705217937</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.33881455125466</v>
+        <v>1.714382137457638</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.520858177145429</v>
+        <v>1.522698028303746</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.448723809501952</v>
+        <v>1.454905026955402</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.283576432424482</v>
+        <v>1.523338355663754</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.637929337047457</v>
+        <v>1.377813165184393</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.597128843307534</v>
+        <v>1.595806195329419</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.457597114600869</v>
+        <v>1.507739658059364</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.546381682411601</v>
+        <v>1.27212211079207</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.481055504785834</v>
+        <v>1.676764370878708</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.395604036833616</v>
+        <v>1.468838537730876</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.511037165258333</v>
+        <v>1.724204064449315</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.198869685636379</v>
+        <v>1.435143155771934</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1.398822356433272</v>
+        <v>1.326750895242458</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.404284133471864</v>
+        <v>1.496194527119201</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.582246561693776</v>
+        <v>1.413659328294511</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.544986639245689</v>
+        <v>1.506357115520718</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.56248461197473</v>
+        <v>1.432212971200988</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.522285268760059</v>
+        <v>1.622178127827402</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.512765013396694</v>
+        <v>1.631696855187747</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.711468129308579</v>
+        <v>1.362782677947403</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.32091506495516</v>
+        <v>1.640956124480484</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.547161101485741</v>
+        <v>1.459314289541148</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.502899598674118</v>
+        <v>1.501823517668099</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.457636155192977</v>
+        <v>1.398883283523546</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.477101946247727</v>
+        <v>1.488151465710866</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.33391191719716</v>
+        <v>1.540259622621307</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.553619844523193</v>
+        <v>1.551981170366702</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.525455640499393</v>
+        <v>1.519994996890152</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.671751559657634</v>
+        <v>1.552696972275124</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.59078601272019</v>
+        <v>1.427204356948949</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.535079239610625</v>
+        <v>1.635793816456981</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.436166587682102</v>
+        <v>1.446183555677268</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.542182368476814</v>
+        <v>1.758020806357756</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.536402639346649</v>
+        <v>1.698836063711736</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.3057042076156</v>
+        <v>1.530350258184292</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.180029702727997</v>
+        <v>1.535881018261772</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.520701654525505</v>
+        <v>1.607751876456856</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.55672800610286</v>
+        <v>1.486051696111222</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.327561075488488</v>
+        <v>1.688309016450224</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.564324933101549</v>
+        <v>1.191922739908587</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.524511208244957</v>
+        <v>1.570540805341146</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.533207955372786</v>
+        <v>1.476994322570896</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.587000758533589</v>
+        <v>1.195530376281833</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.330924058391269</v>
+        <v>1.693938392197001</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.491889019656901</v>
+        <v>1.793912938324161</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.544890701744873</v>
+        <v>1.715621192966737</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.472947353638015</v>
+        <v>1.497127637575114</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.606265390231168</v>
+        <v>1.500833954208334</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.327507913800552</v>
+        <v>1.585106977374273</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.609408760425455</v>
+        <v>1.581077588696793</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.694649658246564</v>
+        <v>1.211055292253042</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.56680494857485</v>
+        <v>1.289295270411462</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.279336955872075</v>
+        <v>1.663857692517718</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.619174832286745</v>
+        <v>1.443821859710182</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.471713642529954</v>
+        <v>1.690997846828429</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.448975695008455</v>
+        <v>1.575578936612756</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.717261487915791</v>
+        <v>1.727403906482305</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.415021592546987</v>
+        <v>1.657584408925075</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.602652156681533</v>
+        <v>1.240996007474</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.409354048488311</v>
+        <v>1.681992995214604</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.69657112640338</v>
+        <v>1.560520371065694</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.451730974557807</v>
+        <v>1.545359223306517</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.336191158789547</v>
+        <v>1.346252693618976</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.355461049117615</v>
+        <v>1.430446066385052</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.450467166453101</v>
+        <v>1.232982260394504</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.350698167944832</v>
+        <v>1.420365940828829</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.708424296357099</v>
+        <v>1.883337843137096</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.518418965401415</v>
+        <v>1.795364285182776</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.738521560858302</v>
+        <v>1.384100469475842</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.547089136764533</v>
+        <v>1.383771566273737</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.544192736696558</v>
+        <v>1.415430061453861</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.475985148184924</v>
+        <v>1.505161148232395</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.626782768263595</v>
+        <v>1.730551479886771</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.40884086536385</v>
+        <v>1.451085148549759</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.371177771637153</v>
+        <v>1.385488724029464</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.406655202480388</v>
+        <v>1.801587039155521</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.56218704366065</v>
+        <v>1.588032669622008</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.553288044027271</v>
+        <v>1.455352858770371</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.402686604142318</v>
+        <v>1.479066953048549</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.660901636943118</v>
+        <v>1.717693778044525</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.314883685060676</v>
+        <v>1.595662168434303</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.715327951508737</v>
+        <v>1.408455894782833</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.451466883894505</v>
+        <v>1.546603343192988</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.45755393619501</v>
+        <v>1.459952242277567</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.681775689266222</v>
+        <v>1.810198906212433</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.624355466457916</v>
+        <v>1.464988422050018</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.217176136220693</v>
+        <v>1.365151321291217</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.585902041728602</v>
+        <v>1.660738662678068</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.448469250357296</v>
+        <v>1.686419823078099</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.504452400976969</v>
+        <v>1.61525637402072</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.769246856716717</v>
+        <v>1.65336243153631</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.554674224995902</v>
+        <v>1.414037519715232</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.472148039829293</v>
+        <v>1.751668660757121</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.532409646688308</v>
+        <v>1.6250545414396</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.499869526602663</v>
+        <v>1.599047825879368</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.829629513810795</v>
+        <v>1.554401948806462</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.404749812160375</v>
+        <v>1.432390733300113</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.799192786028361</v>
+        <v>1.689974829592801</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.423270439433381</v>
+        <v>1.502394417333907</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.389585259571334</v>
+        <v>1.749394794756325</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.428479287995418</v>
+        <v>1.126730265880359</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.365490600444401</v>
+        <v>1.516962565801535</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.649280874752641</v>
+        <v>1.424891637505425</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.66803805575077</v>
+        <v>1.412739632948392</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.479574253038339</v>
+        <v>1.528088712599091</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.418014347204674</v>
+        <v>1.431156485442406</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.538984712234686</v>
+        <v>1.518301754222742</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.397537575341334</v>
+        <v>1.241373079642055</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.377593402772683</v>
+        <v>1.677778137728346</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.37846717355918</v>
+        <v>1.50664340888503</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.296236669151631</v>
+        <v>1.583612679874977</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.396508712754186</v>
+        <v>1.500118651462299</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.13633822740385</v>
+        <v>1.619176113716452</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.506290253586282</v>
+        <v>1.44056423439286</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.404250931139736</v>
+        <v>1.436445108503455</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.540702350761942</v>
+        <v>1.631076522290916</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.43184941436198</v>
+        <v>1.555866908497418</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.462002007923967</v>
+        <v>1.254681553280762</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.53286014242204</v>
+        <v>1.539354102201106</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.833253566258164</v>
+        <v>1.207880326363433</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.143243699844184</v>
+        <v>1.45834595786672</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.687952420358669</v>
+        <v>1.428016235304446</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.320541838380901</v>
+        <v>1.37025679042425</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.605663686615624</v>
+        <v>1.499011378344593</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.623879235809697</v>
+        <v>1.607600714137691</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.446475096150484</v>
+        <v>1.571753017560815</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.787195317679635</v>
+        <v>1.577413215337735</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.43334668288201</v>
+        <v>1.198423103173415</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.437616308827691</v>
+        <v>1.470827563999812</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.394385881143617</v>
+        <v>1.724648885329777</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.52829474005329</v>
+        <v>1.567815072529279</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.432932305656249</v>
+        <v>1.542957156122134</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.473219885105762</v>
+        <v>1.19334835313936</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.298366131033454</v>
+        <v>1.558871251637476</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.691531582899941</v>
+        <v>1.509090666308129</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.594411078861869</v>
+        <v>1.409758928924464</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.669126874675435</v>
+        <v>1.37990347729198</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.548996180425354</v>
+        <v>1.636889378535127</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.226378982612667</v>
+        <v>1.530554748315071</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.612945677950085</v>
+        <v>1.223020241320066</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.428508466002434</v>
+        <v>1.776107336379872</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.649588260132103</v>
+        <v>1.617070288788126</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.407826318685919</v>
+        <v>1.440086627986982</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.966837875365698</v>
+        <v>1.451590172266825</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.475918668696721</v>
+        <v>1.795565797020755</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.513701932315256</v>
+        <v>1.288574294779553</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.558879062007754</v>
+        <v>1.537519767914787</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.629946181140461</v>
+        <v>1.295494798774669</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.55878928163753</v>
+        <v>1.496601457091494</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.580719337660275</v>
+        <v>1.545081357368952</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.640290050000874</v>
+        <v>1.490047663281338</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.435812527234318</v>
+        <v>1.325410705263912</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.309714931937022</v>
+        <v>1.455737095940872</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.484175768837773</v>
+        <v>1.364316946732418</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.392480800421935</v>
+        <v>1.458421597041035</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.46791255181643</v>
+        <v>1.631898840582101</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.479985488032826</v>
+        <v>1.476292373148478</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.423542092673485</v>
+        <v>1.635111163550056</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.475948584575796</v>
+        <v>1.582662063730479</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.622658355963896</v>
+        <v>1.535474536445876</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.574885032523476</v>
+        <v>1.394029948320231</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.389608113454557</v>
+        <v>1.51794445104533</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.603447132209088</v>
+        <v>1.5670925055668</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.415877132393814</v>
+        <v>1.435670610185504</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.346094190806916</v>
+        <v>1.258914703500745</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.57678307110946</v>
+        <v>1.559020487719684</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.383272874760826</v>
+        <v>1.291959355634232</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.645053144648688</v>
+        <v>1.235918739566364</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.288750133048242</v>
+        <v>1.528361730416143</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.43697442406019</v>
+        <v>1.486354161207985</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.318476108301237</v>
+        <v>1.471387990875947</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.418636843378645</v>
+        <v>1.505104098518082</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.179297265399402</v>
+        <v>1.398659771224935</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.262124679921741</v>
+        <v>1.627863512131446</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.518819397382869</v>
+        <v>1.536538747058309</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.355761203968342</v>
+        <v>1.440975146364416</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.502039471329324</v>
+        <v>1.461506927842076</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.600081950756826</v>
+        <v>1.371138770837012</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.191760386912292</v>
+        <v>1.756555546331561</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.510805800787827</v>
+        <v>1.556766752480759</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.365231257656168</v>
+        <v>1.420730210102991</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>1.716559467836967</v>
+        <v>1.336914033131924</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.52173808682338</v>
+        <v>1.534199320107914</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.695503354733975</v>
+        <v>1.505324572971845</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.605146186228446</v>
+        <v>1.766159700004652</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.525016592993578</v>
+        <v>1.415815417004586</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.366566700226115</v>
+        <v>1.710496584003577</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.57912978795842</v>
+        <v>1.152641428687505</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.384732092130672</v>
+        <v>1.53351293039229</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.377103511377412</v>
+        <v>1.458226997121352</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.795410135188226</v>
+        <v>1.588234759200601</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.675221276389355</v>
+        <v>1.441572104868519</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.49419480435274</v>
+        <v>1.407737009762716</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.357824121167264</v>
+        <v>1.687227887643381</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.692711644387223</v>
+        <v>1.708126295544885</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.639075571272646</v>
+        <v>1.594086034350826</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.572212630937527</v>
+        <v>1.446734910984155</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.532914515969092</v>
+        <v>1.594269050023124</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.696226600988869</v>
+        <v>1.429370438777454</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.635144631064364</v>
+        <v>1.523837215927167</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.632918779974645</v>
+        <v>1.548732893473032</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.648851699474417</v>
+        <v>1.820407828728095</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.637668458636547</v>
+        <v>1.207874992411598</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.694044138666943</v>
+        <v>1.220198814348831</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.392408644045544</v>
+        <v>1.431214023491868</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.435431890272505</v>
+        <v>1.617949293054045</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.505428537375943</v>
+        <v>1.580251687638944</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.6206772795443</v>
+        <v>1.327818363197816</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.318218287554061</v>
+        <v>1.456140542287955</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.149660147888182</v>
+        <v>1.456182672516196</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.696839764865464</v>
+        <v>1.310806899234406</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.449200405883073</v>
+        <v>1.656215818895848</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.453166235489128</v>
+        <v>1.651230391837158</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.554100310221004</v>
+        <v>1.438017195813122</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.703517433379657</v>
+        <v>1.208105519682462</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.45914865443246</v>
+        <v>1.455563073941694</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.510685309192048</v>
+        <v>1.480453691595955</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.494897039436731</v>
+        <v>1.681085382544669</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.218134400582357</v>
+        <v>1.559836128268294</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.341893239476948</v>
+        <v>1.307460355712654</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.586147820049163</v>
+        <v>1.543299911557998</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.656596749528636</v>
+        <v>1.601808215242394</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.390056013566334</v>
+        <v>1.568020975654099</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.476561308419781</v>
+        <v>1.591416955638297</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.408866091548525</v>
+        <v>1.440956205218949</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.584474456664262</v>
+        <v>1.279800201858638</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.602545394563905</v>
+        <v>1.5643959206242</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.359622972712755</v>
+        <v>1.461214860871592</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.368493186879939</v>
+        <v>1.494733480906256</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.536620325053797</v>
+        <v>1.766496149828785</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.448469978571614</v>
+        <v>1.651158343210331</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.653580519079626</v>
+        <v>1.352535775089686</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.447761586307592</v>
+        <v>1.707890708691256</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.492956233272278</v>
+        <v>1.503583880897261</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.61738720917408</v>
+        <v>1.397717359367088</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.487678170576772</v>
+        <v>1.303182482057319</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.49036877546421</v>
+        <v>1.37310656947461</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.40602771842641</v>
+        <v>1.258472847482367</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.548025815302324</v>
+        <v>1.32234984264528</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.726314780976345</v>
+        <v>1.438813687590464</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.834324104281513</v>
+        <v>1.298102151449807</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.561151739209197</v>
+        <v>1.675662736444841</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.235628369222994</v>
+        <v>1.341954966877013</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.516698949632085</v>
+        <v>1.352909595741381</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.399477489883494</v>
+        <v>1.3858265187723</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.481537996784326</v>
+        <v>1.554626540304141</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.744002976839352</v>
+        <v>1.589758530206318</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.48241384025097</v>
+        <v>1.433485913084712</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.306379163173505</v>
+        <v>1.709938033553938</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/29_localizer.xlsx
+++ b/sequences/29_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
   </si>
   <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
     <t>flower/flower032.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>dog/dog042.jpg</t>
   </si>
   <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
   </si>
   <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
     <t>flower/flower055.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
   </si>
   <si>
     <t>dog/dog076.jpg</t>
   </si>
   <si>
-    <t>dog/dog064.jpg</t>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
   </si>
   <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
     <t>dog/dog078.jpg</t>
   </si>
   <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
     <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.57917494660977</v>
+        <v>1.665039661243753</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.747811613601866</v>
+        <v>1.467038681927124</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.397753418369581</v>
+        <v>1.470219225717566</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.606887898574086</v>
+        <v>1.477198068205558</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.410431728921452</v>
+        <v>1.541770333489987</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.436665196416309</v>
+        <v>1.267561065693899</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.645307705217937</v>
+        <v>1.594714280883064</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.714382137457638</v>
+        <v>1.769266477746655</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.522698028303746</v>
+        <v>1.646753140341447</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.454905026955402</v>
+        <v>1.420003481033704</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.523338355663754</v>
+        <v>1.559072785211724</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.377813165184393</v>
+        <v>1.662213329476184</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.595806195329419</v>
+        <v>1.482490447435404</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.507739658059364</v>
+        <v>1.659240280770756</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.27212211079207</v>
+        <v>1.420617079300441</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.676764370878708</v>
+        <v>1.407515492429358</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.468838537730876</v>
+        <v>1.301376648698214</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.724204064449315</v>
+        <v>1.268043320581683</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.435143155771934</v>
+        <v>1.587807020535188</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.326750895242458</v>
+        <v>1.508050400555802</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.496194527119201</v>
+        <v>1.41536952895458</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.413659328294511</v>
+        <v>1.217288483634003</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.506357115520718</v>
+        <v>1.544857861779378</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.432212971200988</v>
+        <v>1.52915728025888</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.622178127827402</v>
+        <v>1.397811381750602</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.631696855187747</v>
+        <v>1.689442702834032</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.362782677947403</v>
+        <v>1.315586932958003</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.640956124480484</v>
+        <v>1.671454328654039</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.459314289541148</v>
+        <v>1.320046760813288</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.501823517668099</v>
+        <v>1.449520634659337</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.398883283523546</v>
+        <v>1.918197698842937</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.488151465710866</v>
+        <v>1.574792849158213</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.540259622621307</v>
+        <v>1.747293977007012</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.551981170366702</v>
+        <v>1.459691926827358</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.519994996890152</v>
+        <v>1.864182649776614</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.552696972275124</v>
+        <v>1.48259360644827</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.427204356948949</v>
+        <v>1.372555787960259</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.635793816456981</v>
+        <v>1.411809523412836</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.446183555677268</v>
+        <v>1.457146552623799</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.758020806357756</v>
+        <v>1.581452903992529</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.698836063711736</v>
+        <v>1.296887465203831</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.530350258184292</v>
+        <v>1.230484580257849</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.535881018261772</v>
+        <v>1.512870688075588</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.607751876456856</v>
+        <v>1.446728282302737</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.486051696111222</v>
+        <v>1.489466268861919</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.688309016450224</v>
+        <v>1.527544814437241</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.191922739908587</v>
+        <v>1.50718190343573</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.570540805341146</v>
+        <v>1.451814106516975</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.476994322570896</v>
+        <v>1.477870422614547</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.195530376281833</v>
+        <v>1.463549968500824</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.693938392197001</v>
+        <v>1.554430856594279</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.793912938324161</v>
+        <v>1.477374370749497</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.715621192966737</v>
+        <v>1.732026432826097</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.497127637575114</v>
+        <v>1.298156330242082</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.500833954208334</v>
+        <v>1.617107908972113</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.585106977374273</v>
+        <v>1.68608824920292</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.581077588696793</v>
+        <v>1.686936438922958</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.211055292253042</v>
+        <v>1.385760676658672</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.289295270411462</v>
+        <v>1.661682037358083</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.663857692517718</v>
+        <v>1.423466130382724</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.443821859710182</v>
+        <v>1.535790995496028</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.690997846828429</v>
+        <v>1.399054139074263</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.575578936612756</v>
+        <v>1.235288731384272</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.727403906482305</v>
+        <v>1.288520029110783</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.657584408925075</v>
+        <v>1.429869203543564</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.240996007474</v>
+        <v>1.434234033521304</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.681992995214604</v>
+        <v>1.551429097554839</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.560520371065694</v>
+        <v>1.251514729452458</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.545359223306517</v>
+        <v>1.42327916674388</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.346252693618976</v>
+        <v>1.539538208567718</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.430446066385052</v>
+        <v>1.260846235669355</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.232982260394504</v>
+        <v>1.21256540190107</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.420365940828829</v>
+        <v>1.522303753794351</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.883337843137096</v>
+        <v>1.5083877942909</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.795364285182776</v>
+        <v>1.588510705123955</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.384100469475842</v>
+        <v>1.519817981286139</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.383771566273737</v>
+        <v>1.539864465615203</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.415430061453861</v>
+        <v>1.485246559044875</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.505161148232395</v>
+        <v>1.489342551100286</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.730551479886771</v>
+        <v>1.282818771659791</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.451085148549759</v>
+        <v>1.026525452164245</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.385488724029464</v>
+        <v>1.504387908815679</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.801587039155521</v>
+        <v>1.53062109657994</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.588032669622008</v>
+        <v>1.688221502309962</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.455352858770371</v>
+        <v>1.622512790464546</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.479066953048549</v>
+        <v>1.189504909469013</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.717693778044525</v>
+        <v>1.550987268536671</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.595662168434303</v>
+        <v>1.456184741270237</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.408455894782833</v>
+        <v>1.363902661671166</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.546603343192988</v>
+        <v>1.358601599845008</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.459952242277567</v>
+        <v>1.56217505161073</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.810198906212433</v>
+        <v>1.618875994736945</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.464988422050018</v>
+        <v>1.426915815303535</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.365151321291217</v>
+        <v>1.417068119031655</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.660738662678068</v>
+        <v>1.640269860008543</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.686419823078099</v>
+        <v>1.503854494618141</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.61525637402072</v>
+        <v>1.727188653911214</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.65336243153631</v>
+        <v>1.4265826008525</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.414037519715232</v>
+        <v>1.435348662970935</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.751668660757121</v>
+        <v>1.517948271567604</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.6250545414396</v>
+        <v>1.695862240721536</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.599047825879368</v>
+        <v>1.650602287847123</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.554401948806462</v>
+        <v>1.324123878501243</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.432390733300113</v>
+        <v>1.49178176190023</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.689974829592801</v>
+        <v>1.660129661805494</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.502394417333907</v>
+        <v>1.512901917415901</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.749394794756325</v>
+        <v>1.26006685673923</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.126730265880359</v>
+        <v>1.428124692208346</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.516962565801535</v>
+        <v>1.499678996909314</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.424891637505425</v>
+        <v>1.419540900631824</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.412739632948392</v>
+        <v>1.300485409203595</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.528088712599091</v>
+        <v>1.676221650354456</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.431156485442406</v>
+        <v>1.43596872860126</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.518301754222742</v>
+        <v>1.393967626450698</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.241373079642055</v>
+        <v>1.418386719321913</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.677778137728346</v>
+        <v>1.206945729882174</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.50664340888503</v>
+        <v>1.336407997522024</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.583612679874977</v>
+        <v>1.350516966308172</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.500118651462299</v>
+        <v>1.48093372424362</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.619176113716452</v>
+        <v>1.261407934528124</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.44056423439286</v>
+        <v>1.360271187589932</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.436445108503455</v>
+        <v>1.42400061616148</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.631076522290916</v>
+        <v>1.620590359992415</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.555866908497418</v>
+        <v>1.27889311069461</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.254681553280762</v>
+        <v>1.877652007581926</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.539354102201106</v>
+        <v>1.50466622438352</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.207880326363433</v>
+        <v>1.495766494055645</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.45834595786672</v>
+        <v>1.529221205148732</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.428016235304446</v>
+        <v>1.487854159104932</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.37025679042425</v>
+        <v>1.589099328479183</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.499011378344593</v>
+        <v>1.796207892966591</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.607600714137691</v>
+        <v>1.388638629274359</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.571753017560815</v>
+        <v>1.649422352443578</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.577413215337735</v>
+        <v>1.523416575634863</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.198423103173415</v>
+        <v>1.381367361229679</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.470827563999812</v>
+        <v>1.2760395197404</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.724648885329777</v>
+        <v>1.462886329444899</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.567815072529279</v>
+        <v>1.630816772512997</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.542957156122134</v>
+        <v>1.547520638279364</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.19334835313936</v>
+        <v>1.365986147330357</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.558871251637476</v>
+        <v>1.555598829106918</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.509090666308129</v>
+        <v>1.337912790550027</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.409758928924464</v>
+        <v>1.695102252093737</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.37990347729198</v>
+        <v>1.458727476124047</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.636889378535127</v>
+        <v>1.584833334074488</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.530554748315071</v>
+        <v>1.191306810890076</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.223020241320066</v>
+        <v>1.683413734210581</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.776107336379872</v>
+        <v>1.520011892017841</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.617070288788126</v>
+        <v>1.032137776127699</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.440086627986982</v>
+        <v>1.129103895450264</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.451590172266825</v>
+        <v>1.429352353056924</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.795565797020755</v>
+        <v>1.295394132149396</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.288574294779553</v>
+        <v>1.557670139587417</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.537519767914787</v>
+        <v>1.511585534283217</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.295494798774669</v>
+        <v>1.36921931684799</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.496601457091494</v>
+        <v>1.424299216105374</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.545081357368952</v>
+        <v>1.437762343857989</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.490047663281338</v>
+        <v>1.763441771340132</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.325410705263912</v>
+        <v>1.665600225964545</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.455737095940872</v>
+        <v>1.364309567559674</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.364316946732418</v>
+        <v>1.471010963596947</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.458421597041035</v>
+        <v>1.474671298837741</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.631898840582101</v>
+        <v>1.521256825081424</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.476292373148478</v>
+        <v>1.509789749000487</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.635111163550056</v>
+        <v>1.483057739578083</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.582662063730479</v>
+        <v>1.70949867844212</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.535474536445876</v>
+        <v>1.340709033320667</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.394029948320231</v>
+        <v>1.555357573224976</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.51794445104533</v>
+        <v>1.475279218129299</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.5670925055668</v>
+        <v>1.258137093870334</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.435670610185504</v>
+        <v>1.712053776043934</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.258914703500745</v>
+        <v>1.563054278189297</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.559020487719684</v>
+        <v>1.535305250794039</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.291959355634232</v>
+        <v>1.305094716296578</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.235918739566364</v>
+        <v>1.443388834779809</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.528361730416143</v>
+        <v>1.335203456104527</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.486354161207985</v>
+        <v>1.665726930934018</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.471387990875947</v>
+        <v>1.515511323687414</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.505104098518082</v>
+        <v>1.734806301440652</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.398659771224935</v>
+        <v>1.448706934690002</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.627863512131446</v>
+        <v>1.324969817414293</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.536538747058309</v>
+        <v>1.655981405532684</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.440975146364416</v>
+        <v>1.630437202450032</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.461506927842076</v>
+        <v>1.61409908587599</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.371138770837012</v>
+        <v>1.517411443872854</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.756555546331561</v>
+        <v>1.764583167853892</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.556766752480759</v>
+        <v>1.742632799445895</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.420730210102991</v>
+        <v>1.456740748662459</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>1.336914033131924</v>
+        <v>1.551761383403466</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.534199320107914</v>
+        <v>1.43991754121004</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.505324572971845</v>
+        <v>1.252349949893159</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.766159700004652</v>
+        <v>1.659959985597188</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.415815417004586</v>
+        <v>1.571184166918398</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.710496584003577</v>
+        <v>1.497216877455744</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.152641428687505</v>
+        <v>1.342538899913434</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.53351293039229</v>
+        <v>1.511032956668667</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.458226997121352</v>
+        <v>1.134080924746859</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.588234759200601</v>
+        <v>1.382932951305331</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.441572104868519</v>
+        <v>1.541575550677723</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.407737009762716</v>
+        <v>1.284737732480973</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.687227887643381</v>
+        <v>1.605849303765962</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.708126295544885</v>
+        <v>1.562494673047025</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.594086034350826</v>
+        <v>1.707678553089996</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.446734910984155</v>
+        <v>1.938590304425682</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.594269050023124</v>
+        <v>1.425315419004541</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.429370438777454</v>
+        <v>1.569628386131596</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.523837215927167</v>
+        <v>1.330937043866781</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.548732893473032</v>
+        <v>1.356096321141893</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.820407828728095</v>
+        <v>1.581087079451698</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.207874992411598</v>
+        <v>1.607785539057466</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.220198814348831</v>
+        <v>1.393474415615386</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.431214023491868</v>
+        <v>1.654929340054105</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.617949293054045</v>
+        <v>1.358792247016767</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.580251687638944</v>
+        <v>1.354450215306003</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.327818363197816</v>
+        <v>1.738346520595051</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.456140542287955</v>
+        <v>1.600418586243718</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.456182672516196</v>
+        <v>1.636619196741273</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.310806899234406</v>
+        <v>1.585597413194735</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.656215818895848</v>
+        <v>1.339810285543693</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.651230391837158</v>
+        <v>1.606194652950162</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.438017195813122</v>
+        <v>1.389517447331316</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.208105519682462</v>
+        <v>1.419307035069409</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.455563073941694</v>
+        <v>1.645053628729548</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.480453691595955</v>
+        <v>1.288938446245647</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.681085382544669</v>
+        <v>1.599082420446717</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.559836128268294</v>
+        <v>1.378242976037274</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.307460355712654</v>
+        <v>1.534828658534187</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.543299911557998</v>
+        <v>1.777287619877407</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.601808215242394</v>
+        <v>1.416567757241767</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.568020975654099</v>
+        <v>1.433900652769008</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.591416955638297</v>
+        <v>1.30473318071759</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.440956205218949</v>
+        <v>1.565688784788196</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.279800201858638</v>
+        <v>1.28247442375709</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.5643959206242</v>
+        <v>1.268724509048297</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>1.461214860871592</v>
+        <v>1.577945719572455</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.494733480906256</v>
+        <v>1.438276780772536</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.766496149828785</v>
+        <v>1.398410974398722</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.651158343210331</v>
+        <v>1.646420769514615</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.352535775089686</v>
+        <v>1.741538993309119</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.707890708691256</v>
+        <v>1.434934822601586</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.503583880897261</v>
+        <v>1.428629527800673</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.397717359367088</v>
+        <v>1.530656346505642</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.303182482057319</v>
+        <v>1.396273272616356</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.37310656947461</v>
+        <v>1.711791633607753</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.258472847482367</v>
+        <v>1.53330410345538</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.32234984264528</v>
+        <v>1.332220003390472</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.438813687590464</v>
+        <v>1.668839348120691</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.298102151449807</v>
+        <v>1.45845326303522</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.675662736444841</v>
+        <v>1.278330880656692</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.341954966877013</v>
+        <v>1.666104811007517</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.352909595741381</v>
+        <v>1.646241156740332</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.3858265187723</v>
+        <v>1.676882696285354</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.554626540304141</v>
+        <v>1.292558312686704</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.589758530206318</v>
+        <v>1.74148111570138</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.433485913084712</v>
+        <v>1.480998092741248</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.709938033553938</v>
+        <v>1.296646621877848</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/29_localizer.xlsx
+++ b/sequences/29_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
-    <t>dog/dog032.jpg</t>
+    <t>dog/dog042.jpg</t>
   </si>
   <si>
     <t>flower/flower035.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
   </si>
   <si>
     <t>dog/dog039.jpg</t>
   </si>
   <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
     <t>face/face047.jpg</t>
   </si>
   <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>flower/flower036.jpg</t>
   </si>
   <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
+    <t>dog/dog035.jpg</t>
   </si>
   <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
   </si>
   <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
-    <t>flower/flower051.jpg</t>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>dog/dog052.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>house/house081.jpg</t>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
     <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.665039661243753</v>
+        <v>1.436417344973315</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.467038681927124</v>
+        <v>1.158912142974342</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.470219225717566</v>
+        <v>1.360946051662175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.477198068205558</v>
+        <v>1.459218703476013</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.541770333489987</v>
+        <v>1.539034739115918</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.267561065693899</v>
+        <v>1.643363217250415</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.594714280883064</v>
+        <v>1.475778494083155</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.769266477746655</v>
+        <v>1.247965872761689</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.646753140341447</v>
+        <v>1.431735935338942</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.420003481033704</v>
+        <v>1.394708153745989</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.559072785211724</v>
+        <v>1.603321023347399</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.662213329476184</v>
+        <v>1.350759286994785</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.482490447435404</v>
+        <v>1.449041855190355</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.659240280770756</v>
+        <v>1.519041991320984</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.420617079300441</v>
+        <v>1.386008351616848</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.407515492429358</v>
+        <v>1.407583300357405</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.301376648698214</v>
+        <v>1.806765562261984</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.268043320581683</v>
+        <v>1.602887800396846</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.587807020535188</v>
+        <v>1.499242004445369</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.508050400555802</v>
+        <v>1.528173241223535</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.41536952895458</v>
+        <v>1.483771903386734</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.217288483634003</v>
+        <v>1.562972170040678</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.544857861779378</v>
+        <v>1.536135548743789</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.52915728025888</v>
+        <v>1.498832162891158</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.397811381750602</v>
+        <v>1.298658156447213</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.689442702834032</v>
+        <v>1.611471887336753</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.315586932958003</v>
+        <v>1.592675149701456</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.671454328654039</v>
+        <v>1.399565996510107</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.320046760813288</v>
+        <v>1.58842985191657</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.449520634659337</v>
+        <v>1.655667679719802</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.918197698842937</v>
+        <v>1.397282058902316</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.574792849158213</v>
+        <v>1.386751121460465</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.747293977007012</v>
+        <v>1.657269817803825</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.459691926827358</v>
+        <v>1.475207078632668</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.864182649776614</v>
+        <v>1.417201613574341</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.48259360644827</v>
+        <v>1.55658660218479</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.372555787960259</v>
+        <v>1.778925131533179</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.411809523412836</v>
+        <v>1.429582146960585</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.457146552623799</v>
+        <v>1.480035468762872</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.581452903992529</v>
+        <v>1.596655000890351</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.296887465203831</v>
+        <v>1.295727001059935</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.230484580257849</v>
+        <v>1.305704910890225</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.512870688075588</v>
+        <v>1.554887788375565</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.446728282302737</v>
+        <v>1.693206570513719</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.489466268861919</v>
+        <v>1.484314074545817</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.527544814437241</v>
+        <v>1.446683852866514</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.50718190343573</v>
+        <v>1.519887090898211</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.451814106516975</v>
+        <v>1.190101160356438</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.477870422614547</v>
+        <v>1.418944707546497</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.463549968500824</v>
+        <v>1.538896749526495</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.554430856594279</v>
+        <v>1.855842909333791</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.477374370749497</v>
+        <v>1.399954431952082</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.732026432826097</v>
+        <v>1.403455500245255</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.298156330242082</v>
+        <v>1.517905874182459</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.617107908972113</v>
+        <v>1.394503638446509</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.68608824920292</v>
+        <v>1.421597280051992</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.686936438922958</v>
+        <v>1.681139263770152</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.385760676658672</v>
+        <v>1.32952773787877</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.661682037358083</v>
+        <v>1.374147520711651</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.423466130382724</v>
+        <v>1.612730267105199</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.535790995496028</v>
+        <v>1.577962266657474</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.399054139074263</v>
+        <v>1.268499812934968</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.235288731384272</v>
+        <v>1.55198305702253</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.288520029110783</v>
+        <v>1.298992081696627</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.429869203543564</v>
+        <v>1.44945333801516</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.434234033521304</v>
+        <v>1.315385594457805</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.551429097554839</v>
+        <v>1.5512725883967</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.251514729452458</v>
+        <v>1.329907415407609</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.42327916674388</v>
+        <v>1.516122424165248</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.539538208567718</v>
+        <v>1.428140584748774</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.260846235669355</v>
+        <v>1.420172498454531</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.21256540190107</v>
+        <v>1.558771104924891</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.522303753794351</v>
+        <v>1.722010380277216</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.5083877942909</v>
+        <v>1.540860537768989</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.588510705123955</v>
+        <v>1.387696101907256</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.519817981286139</v>
+        <v>1.434380460469697</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.539864465615203</v>
+        <v>1.187767921527513</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.485246559044875</v>
+        <v>1.708738504710981</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.489342551100286</v>
+        <v>1.466039738172849</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.282818771659791</v>
+        <v>1.50424475385766</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.026525452164245</v>
+        <v>1.46655530729395</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.504387908815679</v>
+        <v>1.648049125280397</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.53062109657994</v>
+        <v>1.545445688964312</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.688221502309962</v>
+        <v>1.527017092635722</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.622512790464546</v>
+        <v>1.541100431530089</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.189504909469013</v>
+        <v>1.53825157429453</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.550987268536671</v>
+        <v>1.456983168170696</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.456184741270237</v>
+        <v>1.441057313741549</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.363902661671166</v>
+        <v>1.385483746790038</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.358601599845008</v>
+        <v>1.416519361080308</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.56217505161073</v>
+        <v>1.37757081965855</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.618875994736945</v>
+        <v>1.321821189578339</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.426915815303535</v>
+        <v>1.488559557192906</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.417068119031655</v>
+        <v>1.432925412514039</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.640269860008543</v>
+        <v>1.511584200036824</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.503854494618141</v>
+        <v>1.595326596169139</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.727188653911214</v>
+        <v>1.408714912677791</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.4265826008525</v>
+        <v>1.654410173086069</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.435348662970935</v>
+        <v>1.41297702205877</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.517948271567604</v>
+        <v>1.140278315187158</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.695862240721536</v>
+        <v>1.277109802723481</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.650602287847123</v>
+        <v>1.431881120692119</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.324123878501243</v>
+        <v>1.266761807603587</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.49178176190023</v>
+        <v>1.468211258673599</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.660129661805494</v>
+        <v>1.417046334052217</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.512901917415901</v>
+        <v>1.573874539610222</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.26006685673923</v>
+        <v>1.487990770512751</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.428124692208346</v>
+        <v>1.318007586890759</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.499678996909314</v>
+        <v>1.693031749322288</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1.419540900631824</v>
+        <v>1.773695176355898</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.300485409203595</v>
+        <v>1.442756312828938</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.676221650354456</v>
+        <v>1.499986480475083</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.43596872860126</v>
+        <v>1.509378436860388</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.393967626450698</v>
+        <v>1.496637178475319</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.418386719321913</v>
+        <v>1.550857840743426</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.206945729882174</v>
+        <v>1.44990200071414</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.336407997522024</v>
+        <v>1.554331428441178</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.350516966308172</v>
+        <v>1.771629115981747</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.48093372424362</v>
+        <v>1.686534038536446</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.261407934528124</v>
+        <v>1.322433770228398</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.360271187589932</v>
+        <v>1.322640794705827</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.42400061616148</v>
+        <v>1.424770333416398</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.620590359992415</v>
+        <v>1.854515627675066</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.27889311069461</v>
+        <v>1.376683106020722</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.877652007581926</v>
+        <v>1.181152455532263</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.50466622438352</v>
+        <v>1.285621645157751</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.495766494055645</v>
+        <v>1.472553644729313</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.529221205148732</v>
+        <v>1.462661987320279</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.487854159104932</v>
+        <v>1.515873475202241</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.589099328479183</v>
+        <v>1.301899634363495</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.796207892966591</v>
+        <v>1.65556404295775</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.388638629274359</v>
+        <v>1.452946596037783</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.649422352443578</v>
+        <v>1.389524798739343</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.523416575634863</v>
+        <v>1.352999912225439</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.381367361229679</v>
+        <v>1.538587688405493</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>1.2760395197404</v>
+        <v>1.584815198387324</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.462886329444899</v>
+        <v>1.710955337481547</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.630816772512997</v>
+        <v>1.363449665958437</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.547520638279364</v>
+        <v>1.475544323832094</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.365986147330357</v>
+        <v>1.68525065747305</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.555598829106918</v>
+        <v>1.346350840861969</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.337912790550027</v>
+        <v>1.374017327710239</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.695102252093737</v>
+        <v>1.532152053455017</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.458727476124047</v>
+        <v>1.473272225745483</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.584833334074488</v>
+        <v>1.560759434255642</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.191306810890076</v>
+        <v>1.846566306317424</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.683413734210581</v>
+        <v>1.540483556415004</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.520011892017841</v>
+        <v>1.602748155384075</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.032137776127699</v>
+        <v>1.250131570736793</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1.129103895450264</v>
+        <v>1.547985147303459</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.429352353056924</v>
+        <v>1.366947069238045</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.295394132149396</v>
+        <v>1.496611297426004</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.557670139587417</v>
+        <v>1.300598336847047</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.511585534283217</v>
+        <v>1.300022613482443</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.36921931684799</v>
+        <v>1.174826478914421</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1.424299216105374</v>
+        <v>1.662901255616132</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.437762343857989</v>
+        <v>1.310053884979998</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.763441771340132</v>
+        <v>1.544985756742514</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.665600225964545</v>
+        <v>1.433595088113264</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.364309567559674</v>
+        <v>1.481923965962174</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.471010963596947</v>
+        <v>1.567703938168052</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.474671298837741</v>
+        <v>1.491222908526741</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.521256825081424</v>
+        <v>1.483150568898605</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.509789749000487</v>
+        <v>1.622965089594437</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.483057739578083</v>
+        <v>1.478477351424686</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.70949867844212</v>
+        <v>1.424427915363561</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.340709033320667</v>
+        <v>1.292929924400702</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.555357573224976</v>
+        <v>1.670472446167299</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.475279218129299</v>
+        <v>1.557131525328325</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.258137093870334</v>
+        <v>1.51957216244715</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.712053776043934</v>
+        <v>1.389265090360466</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.563054278189297</v>
+        <v>1.469271861594042</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.535305250794039</v>
+        <v>1.36361097699764</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.305094716296578</v>
+        <v>1.583505868773674</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.443388834779809</v>
+        <v>1.447857881725006</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.335203456104527</v>
+        <v>1.465098346091328</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.665726930934018</v>
+        <v>1.616513062926576</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.515511323687414</v>
+        <v>1.587696189888043</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.734806301440652</v>
+        <v>1.495888508766778</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.448706934690002</v>
+        <v>1.658307293966508</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.324969817414293</v>
+        <v>1.531585458726586</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.655981405532684</v>
+        <v>1.801548812195429</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.630437202450032</v>
+        <v>1.463131415474962</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.61409908587599</v>
+        <v>1.424857102832467</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.517411443872854</v>
+        <v>1.381672756986311</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.764583167853892</v>
+        <v>1.797874431993341</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.742632799445895</v>
+        <v>1.656143846469345</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.456740748662459</v>
+        <v>1.374439947151316</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.551761383403466</v>
+        <v>1.570778244870078</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.43991754121004</v>
+        <v>1.384839627124995</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.252349949893159</v>
+        <v>1.206833534437526</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.659959985597188</v>
+        <v>1.35973833174626</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.571184166918398</v>
+        <v>1.636377035767651</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.497216877455744</v>
+        <v>1.47786392969374</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.342538899913434</v>
+        <v>1.554711634756351</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.511032956668667</v>
+        <v>1.437614505990677</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.134080924746859</v>
+        <v>1.231463792783371</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.382932951305331</v>
+        <v>1.710171655311512</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.541575550677723</v>
+        <v>1.453858957377588</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.284737732480973</v>
+        <v>1.286243508649429</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.605849303765962</v>
+        <v>1.483500866595411</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.562494673047025</v>
+        <v>1.452617720531235</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.707678553089996</v>
+        <v>1.660309384806041</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.938590304425682</v>
+        <v>1.415154777824809</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.425315419004541</v>
+        <v>1.568885356018674</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.569628386131596</v>
+        <v>1.415286942246496</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.330937043866781</v>
+        <v>1.390472830045279</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.356096321141893</v>
+        <v>1.582830996870738</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.581087079451698</v>
+        <v>1.582541326239782</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.607785539057466</v>
+        <v>1.448946440016454</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.393474415615386</v>
+        <v>1.501226294529699</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.654929340054105</v>
+        <v>1.558968680560133</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.358792247016767</v>
+        <v>1.31911587010556</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.354450215306003</v>
+        <v>1.260865031844572</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.738346520595051</v>
+        <v>1.477775393884856</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.600418586243718</v>
+        <v>1.696609383388195</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.636619196741273</v>
+        <v>1.684079892135176</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.585597413194735</v>
+        <v>1.668333965671938</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.339810285543693</v>
+        <v>1.403937671591923</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.606194652950162</v>
+        <v>1.556012742035761</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.389517447331316</v>
+        <v>1.234862872170561</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.419307035069409</v>
+        <v>1.400892104984148</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.645053628729548</v>
+        <v>1.455019816332672</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.288938446245647</v>
+        <v>1.580503858084374</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.599082420446717</v>
+        <v>1.322283891349263</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.378242976037274</v>
+        <v>1.405302076281744</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.534828658534187</v>
+        <v>1.30872111282335</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.777287619877407</v>
+        <v>1.732686385443408</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.416567757241767</v>
+        <v>1.49817797130997</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.433900652769008</v>
+        <v>1.564484466378698</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.30473318071759</v>
+        <v>1.48899348269942</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.565688784788196</v>
+        <v>1.49649389978684</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.28247442375709</v>
+        <v>1.523435946048923</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.268724509048297</v>
+        <v>1.497616362158532</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.577945719572455</v>
+        <v>1.752754003963105</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.438276780772536</v>
+        <v>1.501724484851446</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.398410974398722</v>
+        <v>1.612809932758553</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.646420769514615</v>
+        <v>1.577723842623041</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.741538993309119</v>
+        <v>1.832442858437268</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.434934822601586</v>
+        <v>1.67283201585112</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.428629527800673</v>
+        <v>1.541433979087646</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.530656346505642</v>
+        <v>1.208401473551122</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.396273272616356</v>
+        <v>1.411139771378978</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.711791633607753</v>
+        <v>1.287096913624035</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.53330410345538</v>
+        <v>1.420817233937263</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.332220003390472</v>
+        <v>1.624591797908154</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.668839348120691</v>
+        <v>1.672470283128815</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.45845326303522</v>
+        <v>1.708443554440109</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.278330880656692</v>
+        <v>1.161450278404729</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.666104811007517</v>
+        <v>1.520290243784898</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.646241156740332</v>
+        <v>1.472300510324831</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.676882696285354</v>
+        <v>1.535080032892144</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.292558312686704</v>
+        <v>1.49180170955095</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.74148111570138</v>
+        <v>1.664022749016327</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.480998092741248</v>
+        <v>1.760365760648028</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.296646621877848</v>
+        <v>1.516360962769053</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/29_localizer.xlsx
+++ b/sequences/29_localizer.xlsx
@@ -43,772 +43,772 @@
     <t>face</t>
   </si>
   <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
     <t>flower/flower041.jpg</t>
   </si>
   <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
     <t>house/house039.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
   </si>
   <si>
     <t>flower/flower039.jpg</t>
   </si>
   <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
   </si>
   <si>
     <t>flower/flower063.jpg</t>
   </si>
   <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
   </si>
   <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
     <t>face/face065.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
   </si>
   <si>
     <t>house/house085.jpg</t>
   </si>
   <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
     <t>dog/dog084.jpg</t>
   </si>
   <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
     <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.436417344973315</v>
+        <v>1.223987320559237</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.158912142974342</v>
+        <v>1.583593873698325</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.360946051662175</v>
+        <v>1.460292076204646</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.459218703476013</v>
+        <v>1.313223199106029</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.539034739115918</v>
+        <v>1.513732080956855</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.643363217250415</v>
+        <v>1.450750319568288</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.475778494083155</v>
+        <v>1.569432784739474</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.247965872761689</v>
+        <v>1.404890315428276</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.431735935338942</v>
+        <v>1.5976346687504</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.394708153745989</v>
+        <v>1.902490926997571</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.603321023347399</v>
+        <v>1.709332152612319</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.350759286994785</v>
+        <v>1.379985920024063</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.449041855190355</v>
+        <v>1.34927176811736</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.519041991320984</v>
+        <v>1.519071864359497</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.386008351616848</v>
+        <v>1.442515726863268</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.407583300357405</v>
+        <v>1.801894081272296</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.806765562261984</v>
+        <v>1.540187784462759</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.602887800396846</v>
+        <v>1.595503517716545</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.499242004445369</v>
+        <v>1.324103421648732</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.528173241223535</v>
+        <v>1.474495607251913</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.483771903386734</v>
+        <v>1.426566729902195</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.562972170040678</v>
+        <v>1.445927982127286</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.536135548743789</v>
+        <v>1.693374017349299</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.498832162891158</v>
+        <v>1.454236963256318</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.298658156447213</v>
+        <v>1.536134363104622</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.611471887336753</v>
+        <v>1.240273167992836</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.592675149701456</v>
+        <v>1.4863154809834</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.399565996510107</v>
+        <v>1.536459658732519</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.58842985191657</v>
+        <v>1.549402529238838</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.655667679719802</v>
+        <v>1.58088881900445</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.397282058902316</v>
+        <v>1.402164283300941</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.386751121460465</v>
+        <v>1.547037214058506</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.657269817803825</v>
+        <v>1.629370806041599</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.475207078632668</v>
+        <v>1.617426601245879</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1.417201613574341</v>
+        <v>1.561791721835718</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.55658660218479</v>
+        <v>1.549846714092756</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.778925131533179</v>
+        <v>1.535366968262461</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.429582146960585</v>
+        <v>1.343897780005646</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.480035468762872</v>
+        <v>1.490747385397715</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.596655000890351</v>
+        <v>1.268213550982486</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.295727001059935</v>
+        <v>1.715451365932182</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.305704910890225</v>
+        <v>1.616266965523745</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.554887788375565</v>
+        <v>1.504283961378862</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.693206570513719</v>
+        <v>1.259124145891581</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.484314074545817</v>
+        <v>1.621907174205796</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1.446683852866514</v>
+        <v>1.649284566777791</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.519887090898211</v>
+        <v>1.679623302484737</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.190101160356438</v>
+        <v>1.448508102480731</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.418944707546497</v>
+        <v>1.302381792515083</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.538896749526495</v>
+        <v>1.329064074468598</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.855842909333791</v>
+        <v>1.469057930463619</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.399954431952082</v>
+        <v>1.738004466648351</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.403455500245255</v>
+        <v>1.521953596758798</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.517905874182459</v>
+        <v>1.595954327974431</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.394503638446509</v>
+        <v>1.51873783686593</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.421597280051992</v>
+        <v>1.466699727567541</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.681139263770152</v>
+        <v>1.5059929066652</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.32952773787877</v>
+        <v>1.495431140403418</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.374147520711651</v>
+        <v>1.537643886652493</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.612730267105199</v>
+        <v>1.133334836336397</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.577962266657474</v>
+        <v>1.51321711346187</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.268499812934968</v>
+        <v>1.541952112850236</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.55198305702253</v>
+        <v>1.612930206858946</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.298992081696627</v>
+        <v>1.403592174397506</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1.44945333801516</v>
+        <v>1.394513356457822</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.315385594457805</v>
+        <v>1.35591592995219</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.5512725883967</v>
+        <v>1.691765498491657</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.329907415407609</v>
+        <v>1.499781863853318</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.516122424165248</v>
+        <v>1.578389549750497</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.428140584748774</v>
+        <v>1.51846021764487</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.420172498454531</v>
+        <v>1.533408592835248</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.558771104924891</v>
+        <v>1.46878418331073</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.722010380277216</v>
+        <v>1.638827305131727</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.540860537768989</v>
+        <v>1.316936566167041</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.387696101907256</v>
+        <v>1.535158059885865</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.434380460469697</v>
+        <v>1.253414800327011</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.187767921527513</v>
+        <v>1.849179927258118</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.708738504710981</v>
+        <v>1.464200787676054</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.466039738172849</v>
+        <v>1.785661581676092</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.50424475385766</v>
+        <v>1.64758203793686</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.46655530729395</v>
+        <v>1.646418479931445</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.648049125280397</v>
+        <v>1.696788110046077</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.545445688964312</v>
+        <v>1.394643454403489</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.527017092635722</v>
+        <v>1.488584207796031</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.541100431530089</v>
+        <v>1.557496961408966</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.53825157429453</v>
+        <v>1.571720221052918</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.456983168170696</v>
+        <v>1.27415836394611</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.441057313741549</v>
+        <v>1.374061831266931</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.385483746790038</v>
+        <v>1.673260556015597</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.416519361080308</v>
+        <v>1.899076873634626</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.37757081965855</v>
+        <v>1.605481257350479</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.321821189578339</v>
+        <v>1.235592944170842</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.488559557192906</v>
+        <v>1.365196384453489</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.432925412514039</v>
+        <v>1.615019725793319</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.511584200036824</v>
+        <v>1.539893687661479</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.595326596169139</v>
+        <v>1.524114298440149</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.408714912677791</v>
+        <v>1.496307425022315</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.654410173086069</v>
+        <v>1.275712536674394</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.41297702205877</v>
+        <v>1.440117064070514</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.140278315187158</v>
+        <v>1.98236617083384</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.277109802723481</v>
+        <v>1.494594658686315</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.431881120692119</v>
+        <v>1.512768434197549</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.266761807603587</v>
+        <v>1.421483698807059</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.468211258673599</v>
+        <v>1.550322196309136</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.417046334052217</v>
+        <v>1.495502731616746</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.573874539610222</v>
+        <v>1.407199658490279</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.487990770512751</v>
+        <v>1.279203601929806</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.318007586890759</v>
+        <v>1.530046636584337</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.693031749322288</v>
+        <v>1.278711132050418</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.773695176355898</v>
+        <v>1.599473884642754</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.442756312828938</v>
+        <v>1.577068599679113</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.499986480475083</v>
+        <v>1.697346293411741</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1.509378436860388</v>
+        <v>1.321570684654752</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.496637178475319</v>
+        <v>1.383953675912927</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.550857840743426</v>
+        <v>1.405139267496019</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.44990200071414</v>
+        <v>1.668331150863692</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.554331428441178</v>
+        <v>1.573354156891434</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.771629115981747</v>
+        <v>1.294257673382978</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.686534038536446</v>
+        <v>1.312443015520087</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.322433770228398</v>
+        <v>1.599471297704849</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.322640794705827</v>
+        <v>1.405756124776688</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.424770333416398</v>
+        <v>1.234219004878018</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.854515627675066</v>
+        <v>1.528138296954423</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.376683106020722</v>
+        <v>1.450270760698532</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.181152455532263</v>
+        <v>1.650544760450725</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.285621645157751</v>
+        <v>1.328092337274458</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.472553644729313</v>
+        <v>1.237611084656748</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.462661987320279</v>
+        <v>1.44223452578915</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.515873475202241</v>
+        <v>1.4457220434765</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.301899634363495</v>
+        <v>1.459432938878892</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.65556404295775</v>
+        <v>1.588861848497922</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.452946596037783</v>
+        <v>1.527652936660873</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.389524798739343</v>
+        <v>1.364823249595724</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.352999912225439</v>
+        <v>1.354475351190317</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.538587688405493</v>
+        <v>1.632349664969985</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.584815198387324</v>
+        <v>1.273807433390751</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.710955337481547</v>
+        <v>1.685619709550559</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.363449665958437</v>
+        <v>1.486884051322375</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.475544323832094</v>
+        <v>1.56011397337293</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.68525065747305</v>
+        <v>1.365217181419257</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.346350840861969</v>
+        <v>1.765415625036416</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.374017327710239</v>
+        <v>1.32145327015591</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.532152053455017</v>
+        <v>1.618785489151772</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.473272225745483</v>
+        <v>1.170293852074178</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.560759434255642</v>
+        <v>1.592518791734029</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.846566306317424</v>
+        <v>1.391490596342412</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.540483556415004</v>
+        <v>1.688258464179204</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.602748155384075</v>
+        <v>1.415746491752598</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.250131570736793</v>
+        <v>1.671595156139416</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.547985147303459</v>
+        <v>1.300557009460671</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.366947069238045</v>
+        <v>1.521499746989992</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.496611297426004</v>
+        <v>1.715206193266628</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.300598336847047</v>
+        <v>1.648814706047708</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.300022613482443</v>
+        <v>1.441584693300037</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.174826478914421</v>
+        <v>1.615833974392596</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.662901255616132</v>
+        <v>1.257516132607988</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.310053884979998</v>
+        <v>1.484154009659163</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.544985756742514</v>
+        <v>1.388603990134939</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.433595088113264</v>
+        <v>1.395392212741477</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.481923965962174</v>
+        <v>1.549734674665484</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.567703938168052</v>
+        <v>1.629552912001092</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.491222908526741</v>
+        <v>1.267736048249569</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.483150568898605</v>
+        <v>1.516277042564798</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.622965089594437</v>
+        <v>1.626051065357587</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.478477351424686</v>
+        <v>1.758333133258699</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.424427915363561</v>
+        <v>1.669662106522271</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.292929924400702</v>
+        <v>1.584977296004513</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.670472446167299</v>
+        <v>1.715651972655995</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.557131525328325</v>
+        <v>1.481893051588219</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.51957216244715</v>
+        <v>1.463696601721775</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.389265090360466</v>
+        <v>1.680655057464727</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.469271861594042</v>
+        <v>1.53660486751277</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.36361097699764</v>
+        <v>1.443276281764169</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.583505868773674</v>
+        <v>1.151341154419818</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.447857881725006</v>
+        <v>1.364500286259532</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.465098346091328</v>
+        <v>1.463726399992294</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.616513062926576</v>
+        <v>1.161000875166678</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.587696189888043</v>
+        <v>1.430598131224461</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.495888508766778</v>
+        <v>1.371370212566289</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.658307293966508</v>
+        <v>1.460964128438224</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.531585458726586</v>
+        <v>1.56792719246738</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.801548812195429</v>
+        <v>1.564501453796496</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.463131415474962</v>
+        <v>1.596143039806141</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.424857102832467</v>
+        <v>1.637359432364283</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.381672756986311</v>
+        <v>1.680682011602598</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.797874431993341</v>
+        <v>1.301155776114399</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.656143846469345</v>
+        <v>1.435458572402155</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.374439947151316</v>
+        <v>1.693653993315821</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.570778244870078</v>
+        <v>1.741140830665051</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.384839627124995</v>
+        <v>1.431628553913062</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.206833534437526</v>
+        <v>1.526341321034192</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.35973833174626</v>
+        <v>1.646995275065705</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.636377035767651</v>
+        <v>1.613788333299809</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.47786392969374</v>
+        <v>1.474204619470476</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.554711634756351</v>
+        <v>1.537293726393929</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.437614505990677</v>
+        <v>1.455589709237736</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.231463792783371</v>
+        <v>1.753141941659096</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.710171655311512</v>
+        <v>1.333203101489895</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.453858957377588</v>
+        <v>1.433429792060679</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.286243508649429</v>
+        <v>1.522922085856526</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.483500866595411</v>
+        <v>1.753597272705225</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.452617720531235</v>
+        <v>1.556683619057998</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.660309384806041</v>
+        <v>1.387828209301348</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.415154777824809</v>
+        <v>1.505396732293733</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.568885356018674</v>
+        <v>1.529310914594538</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.415286942246496</v>
+        <v>1.380756784158864</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.390472830045279</v>
+        <v>1.751493000051873</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.582830996870738</v>
+        <v>1.494132232700061</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.582541326239782</v>
+        <v>1.623750156566057</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.448946440016454</v>
+        <v>1.481960033034097</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.501226294529699</v>
+        <v>1.579606193240923</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.558968680560133</v>
+        <v>1.467388268091576</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.31911587010556</v>
+        <v>1.718939136984283</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.260865031844572</v>
+        <v>1.64149836738349</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.477775393884856</v>
+        <v>1.651283116613945</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.696609383388195</v>
+        <v>1.433141872786287</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.684079892135176</v>
+        <v>1.693917955561951</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.668333965671938</v>
+        <v>1.631937484128982</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.403937671591923</v>
+        <v>1.26945250897636</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.556012742035761</v>
+        <v>1.535088453410114</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.234862872170561</v>
+        <v>1.58433119698802</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.400892104984148</v>
+        <v>1.390128209095456</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.455019816332672</v>
+        <v>1.334387339509663</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.580503858084374</v>
+        <v>1.518367796410305</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.322283891349263</v>
+        <v>1.35021204723037</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.405302076281744</v>
+        <v>1.733748314322858</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.30872111282335</v>
+        <v>1.600053197445282</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.732686385443408</v>
+        <v>1.721294886235021</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.49817797130997</v>
+        <v>1.379725765839448</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.564484466378698</v>
+        <v>1.431523686544564</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.48899348269942</v>
+        <v>1.420537500583357</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.49649389978684</v>
+        <v>1.311175765146682</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.523435946048923</v>
+        <v>1.632113965945492</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.497616362158532</v>
+        <v>1.405622024132938</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.752754003963105</v>
+        <v>1.527388181591892</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.501724484851446</v>
+        <v>1.423337835398252</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.612809932758553</v>
+        <v>1.338117696562559</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.577723842623041</v>
+        <v>1.477936302609823</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.832442858437268</v>
+        <v>1.481646006847364</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.67283201585112</v>
+        <v>1.331640851779763</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.541433979087646</v>
+        <v>1.465603997071198</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.208401473551122</v>
+        <v>1.813799040488013</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.411139771378978</v>
+        <v>1.497116426016158</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.287096913624035</v>
+        <v>1.446708869434812</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.420817233937263</v>
+        <v>1.400612591937567</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.624591797908154</v>
+        <v>1.47534176275308</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.672470283128815</v>
+        <v>1.4204384024832</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.708443554440109</v>
+        <v>1.599975717828217</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.161450278404729</v>
+        <v>1.869590178483078</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.520290243784898</v>
+        <v>1.552619600756619</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="F252">
-        <v>1.472300510324831</v>
+        <v>1.335943932139229</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.535080032892144</v>
+        <v>1.359828174199407</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.49180170955095</v>
+        <v>1.666194414839148</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.664022749016327</v>
+        <v>1.490571461164169</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.760365760648028</v>
+        <v>1.329228087565412</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.516360962769053</v>
+        <v>1.58280125069071</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/29_localizer.xlsx
+++ b/sequences/29_localizer.xlsx
@@ -43,772 +43,772 @@
     <t>face</t>
   </si>
   <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
     <t>flower/flower034.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
   </si>
   <si>
     <t>dog/dog043.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
   </si>
   <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
     <t>house/house032.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
     <t>flower/flower064.jpg</t>
   </si>
   <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
+    <t>dog/dog054.jpg</t>
   </si>
   <si>
     <t>dog/dog049.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>house/house077.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>flower/flower079.jpg</t>
   </si>
   <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
+    <t>flower/flower080.jpg</t>
   </si>
   <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
     <t>dog/dog081.jpg</t>
   </si>
   <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
   </si>
   <si>
     <t>face/face086.jpg</t>
   </si>
   <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
     <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.223987320559237</v>
+        <v>1.462404900781326</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.583593873698325</v>
+        <v>1.515537647411929</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.460292076204646</v>
+        <v>1.696560798578164</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.313223199106029</v>
+        <v>1.337619769021805</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.513732080956855</v>
+        <v>1.74429414325345</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.450750319568288</v>
+        <v>1.37778936376716</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.569432784739474</v>
+        <v>1.732894542415573</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.404890315428276</v>
+        <v>1.342545434152704</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.5976346687504</v>
+        <v>1.570967893385998</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.902490926997571</v>
+        <v>1.344477509362914</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.709332152612319</v>
+        <v>1.446415882240153</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.379985920024063</v>
+        <v>1.359375810691</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.34927176811736</v>
+        <v>1.296172645606359</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.519071864359497</v>
+        <v>1.545051904932946</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.442515726863268</v>
+        <v>1.483813133659879</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.801894081272296</v>
+        <v>1.901623796808731</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.540187784462759</v>
+        <v>1.224852076436808</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.595503517716545</v>
+        <v>1.100985237775545</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.324103421648732</v>
+        <v>1.344818098424933</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.474495607251913</v>
+        <v>1.467906422705753</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.426566729902195</v>
+        <v>1.591500270678968</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.445927982127286</v>
+        <v>1.604684563636591</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.693374017349299</v>
+        <v>1.715730274400964</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.454236963256318</v>
+        <v>1.700947415326599</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.536134363104622</v>
+        <v>1.722068818551889</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.240273167992836</v>
+        <v>1.522430633748731</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.4863154809834</v>
+        <v>1.259197582352507</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.536459658732519</v>
+        <v>1.48196612318644</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.549402529238838</v>
+        <v>1.366271655120384</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.58088881900445</v>
+        <v>1.737592806605625</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.402164283300941</v>
+        <v>1.606670276311099</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.547037214058506</v>
+        <v>1.386130542143851</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.629370806041599</v>
+        <v>1.485136874877683</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.617426601245879</v>
+        <v>1.689381944932185</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.561791721835718</v>
+        <v>1.18313300183278</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.549846714092756</v>
+        <v>1.707978503407542</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.535366968262461</v>
+        <v>1.484944413807953</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.343897780005646</v>
+        <v>1.55136428094916</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.490747385397715</v>
+        <v>1.48205747344318</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.268213550982486</v>
+        <v>1.520273093139956</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.715451365932182</v>
+        <v>1.691844454208104</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.616266965523745</v>
+        <v>1.481882842495057</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.504283961378862</v>
+        <v>1.376462483469807</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.259124145891581</v>
+        <v>1.394119219372995</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.621907174205796</v>
+        <v>1.593654749221387</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.649284566777791</v>
+        <v>1.28879039988496</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.679623302484737</v>
+        <v>1.580687142588148</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.448508102480731</v>
+        <v>1.599444435429102</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.302381792515083</v>
+        <v>1.589456080007162</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.329064074468598</v>
+        <v>1.259331688842679</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.469057930463619</v>
+        <v>1.699697393718534</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.738004466648351</v>
+        <v>1.592998475661388</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.521953596758798</v>
+        <v>1.538448256900276</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.595954327974431</v>
+        <v>1.51015065379892</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.51873783686593</v>
+        <v>1.425337722408859</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.466699727567541</v>
+        <v>1.372903874882439</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.5059929066652</v>
+        <v>1.614492073404616</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.495431140403418</v>
+        <v>1.490121879167597</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.537643886652493</v>
+        <v>1.526900564056917</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.133334836336397</v>
+        <v>1.663756089483245</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.51321711346187</v>
+        <v>1.612269320247018</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.541952112850236</v>
+        <v>1.46977543699033</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.612930206858946</v>
+        <v>1.486770494316536</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.403592174397506</v>
+        <v>1.664860854849673</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.394513356457822</v>
+        <v>1.617197692680418</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.35591592995219</v>
+        <v>1.493466218416065</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>1.691765498491657</v>
+        <v>1.514942099956371</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.499781863853318</v>
+        <v>1.373637044575138</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.578389549750497</v>
+        <v>1.665232578348114</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.51846021764487</v>
+        <v>1.559592965871764</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.533408592835248</v>
+        <v>1.51909455811437</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.46878418331073</v>
+        <v>1.316558726992632</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.638827305131727</v>
+        <v>1.493428347848158</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.316936566167041</v>
+        <v>1.469372355843558</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.535158059885865</v>
+        <v>1.656128389928436</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.253414800327011</v>
+        <v>1.327977682002924</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.849179927258118</v>
+        <v>1.31585567675456</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.464200787676054</v>
+        <v>1.360074074767787</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.785661581676092</v>
+        <v>1.636994918844272</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.64758203793686</v>
+        <v>1.410155847286256</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.646418479931445</v>
+        <v>1.388554409248314</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.696788110046077</v>
+        <v>1.707041500422836</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.394643454403489</v>
+        <v>1.498539429782472</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.488584207796031</v>
+        <v>1.601363589754886</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.557496961408966</v>
+        <v>1.4799992321178</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.571720221052918</v>
+        <v>1.48343304384996</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.27415836394611</v>
+        <v>1.599551934494034</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.374061831266931</v>
+        <v>1.226318041489489</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.673260556015597</v>
+        <v>1.45163929493447</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.899076873634626</v>
+        <v>1.527257926462414</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.605481257350479</v>
+        <v>1.599634156388666</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.235592944170842</v>
+        <v>1.476385057949556</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.365196384453489</v>
+        <v>1.506895122726822</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.615019725793319</v>
+        <v>1.74525039410825</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.539893687661479</v>
+        <v>1.413048675288809</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.524114298440149</v>
+        <v>1.352734467558371</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.496307425022315</v>
+        <v>1.350262153871544</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.275712536674394</v>
+        <v>1.487380024285969</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.440117064070514</v>
+        <v>1.421462749912656</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.98236617083384</v>
+        <v>1.363035844451569</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.494594658686315</v>
+        <v>1.269211758022002</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.512768434197549</v>
+        <v>1.677144439846457</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.421483698807059</v>
+        <v>1.586918901713257</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.550322196309136</v>
+        <v>1.393912740457045</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.495502731616746</v>
+        <v>1.669638803093046</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.407199658490279</v>
+        <v>1.542128894305541</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.279203601929806</v>
+        <v>1.29833880626377</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.530046636584337</v>
+        <v>1.607034722418498</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1.278711132050418</v>
+        <v>1.555290660151209</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.599473884642754</v>
+        <v>1.315340026704476</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.577068599679113</v>
+        <v>1.376018694058223</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.697346293411741</v>
+        <v>1.566426452928991</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1.321570684654752</v>
+        <v>1.471331107665018</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.383953675912927</v>
+        <v>1.50514024830098</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.405139267496019</v>
+        <v>1.803296621207247</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.668331150863692</v>
+        <v>1.307458414002204</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.573354156891434</v>
+        <v>1.953805853593604</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.294257673382978</v>
+        <v>1.498110233230496</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.312443015520087</v>
+        <v>1.369324131304179</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.599471297704849</v>
+        <v>1.58146024698128</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.405756124776688</v>
+        <v>1.535381148516468</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.234219004878018</v>
+        <v>1.49257139185667</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.528138296954423</v>
+        <v>1.347887610229652</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.450270760698532</v>
+        <v>1.55526452252225</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.650544760450725</v>
+        <v>1.424829951830695</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.328092337274458</v>
+        <v>1.487411387900605</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.237611084656748</v>
+        <v>1.548456418578884</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.44223452578915</v>
+        <v>1.507287233318197</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.4457220434765</v>
+        <v>1.483613461255639</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.459432938878892</v>
+        <v>1.72410239052336</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.588861848497922</v>
+        <v>1.612757146024107</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.527652936660873</v>
+        <v>1.430611453310094</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.364823249595724</v>
+        <v>1.501517643834501</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.354475351190317</v>
+        <v>1.501915489221809</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.632349664969985</v>
+        <v>1.563206636638902</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.273807433390751</v>
+        <v>1.383278984539311</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.685619709550559</v>
+        <v>1.787208373834224</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.486884051322375</v>
+        <v>1.633780126276172</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.56011397337293</v>
+        <v>1.576736129226585</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.365217181419257</v>
+        <v>1.491632211265152</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.765415625036416</v>
+        <v>1.582880884927152</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.32145327015591</v>
+        <v>1.204652076754668</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.618785489151772</v>
+        <v>1.626091768752254</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.170293852074178</v>
+        <v>1.606264268241153</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.592518791734029</v>
+        <v>1.457250525689493</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.391490596342412</v>
+        <v>1.084706829168002</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.688258464179204</v>
+        <v>1.695198988849685</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.415746491752598</v>
+        <v>1.738355562694053</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.671595156139416</v>
+        <v>1.57280465547973</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.300557009460671</v>
+        <v>1.791522041352844</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.521499746989992</v>
+        <v>1.795050577174124</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.715206193266628</v>
+        <v>1.403234518171349</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.648814706047708</v>
+        <v>1.403094646072402</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.441584693300037</v>
+        <v>1.795375330928145</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.615833974392596</v>
+        <v>1.428054233800059</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.257516132607988</v>
+        <v>1.59450492054074</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.484154009659163</v>
+        <v>1.135142134654008</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.388603990134939</v>
+        <v>1.650801013176704</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.395392212741477</v>
+        <v>1.488072789562024</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.549734674665484</v>
+        <v>1.454529293968034</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.629552912001092</v>
+        <v>1.483678450396444</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.267736048249569</v>
+        <v>1.542969647609444</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.516277042564798</v>
+        <v>1.469265404310011</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.626051065357587</v>
+        <v>1.358131218612574</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.758333133258699</v>
+        <v>1.517408661337447</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.669662106522271</v>
+        <v>1.472909597866767</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.584977296004513</v>
+        <v>1.640505608374858</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.715651972655995</v>
+        <v>1.598789974923003</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.481893051588219</v>
+        <v>1.484897827781298</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.463696601721775</v>
+        <v>1.603341084289485</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.680655057464727</v>
+        <v>1.590043721253907</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.53660486751277</v>
+        <v>1.496586369930334</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.443276281764169</v>
+        <v>1.574927754052509</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.151341154419818</v>
+        <v>1.683368818712271</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.364500286259532</v>
+        <v>1.281987694275901</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.463726399992294</v>
+        <v>1.361948970488422</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.161000875166678</v>
+        <v>1.37412672684172</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.430598131224461</v>
+        <v>1.618069079767632</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.371370212566289</v>
+        <v>1.567768172256982</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.460964128438224</v>
+        <v>1.387768837874817</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.56792719246738</v>
+        <v>1.454400842793119</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.564501453796496</v>
+        <v>1.689138299214713</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.596143039806141</v>
+        <v>1.447080079198604</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.637359432364283</v>
+        <v>1.781250047272015</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.680682011602598</v>
+        <v>1.595835283981968</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.301155776114399</v>
+        <v>1.644471104208143</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.435458572402155</v>
+        <v>1.655824927047918</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.693653993315821</v>
+        <v>1.644189086592123</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.741140830665051</v>
+        <v>1.718594666568183</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.431628553913062</v>
+        <v>1.532478335328918</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.526341321034192</v>
+        <v>1.326927825200978</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.646995275065705</v>
+        <v>1.265538941758711</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.613788333299809</v>
+        <v>1.636598786994697</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.474204619470476</v>
+        <v>1.532904582034379</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.537293726393929</v>
+        <v>1.608239202609367</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.455589709237736</v>
+        <v>1.179791733008566</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.753141941659096</v>
+        <v>1.381816623155447</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.333203101489895</v>
+        <v>1.240727233147977</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.433429792060679</v>
+        <v>1.56099714246236</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.522922085856526</v>
+        <v>1.244175398721548</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.753597272705225</v>
+        <v>1.664574544844511</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.556683619057998</v>
+        <v>1.246137732639185</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.387828209301348</v>
+        <v>1.36673446749021</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1.505396732293733</v>
+        <v>1.340754107189376</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.529310914594538</v>
+        <v>1.411280089085252</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.380756784158864</v>
+        <v>1.482010457312406</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.751493000051873</v>
+        <v>1.487259052915368</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.494132232700061</v>
+        <v>1.612385246291341</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.623750156566057</v>
+        <v>1.309155144597246</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.481960033034097</v>
+        <v>1.576299899838012</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.579606193240923</v>
+        <v>1.324715948966285</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.467388268091576</v>
+        <v>1.51306599838386</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.718939136984283</v>
+        <v>1.445764048363968</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.64149836738349</v>
+        <v>1.591036260652874</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.651283116613945</v>
+        <v>1.545358809427495</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.433141872786287</v>
+        <v>1.409054693205447</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.693917955561951</v>
+        <v>1.409836994509344</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.631937484128982</v>
+        <v>1.800007352807813</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.26945250897636</v>
+        <v>1.477764561197543</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.535088453410114</v>
+        <v>1.396903569787494</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.58433119698802</v>
+        <v>1.770342162128931</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.390128209095456</v>
+        <v>1.395893320652824</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.334387339509663</v>
+        <v>1.721637137392832</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.518367796410305</v>
+        <v>1.256354393876087</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.35021204723037</v>
+        <v>1.374582056781137</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.733748314322858</v>
+        <v>1.44471721255753</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.600053197445282</v>
+        <v>1.293044872444959</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.721294886235021</v>
+        <v>1.802804648701686</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.379725765839448</v>
+        <v>1.329754030851639</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.431523686544564</v>
+        <v>1.515717468713255</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>1.420537500583357</v>
+        <v>1.401454255943291</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.311175765146682</v>
+        <v>1.519817864041382</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.632113965945492</v>
+        <v>1.623466443115122</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.405622024132938</v>
+        <v>1.591043613165698</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.527388181591892</v>
+        <v>1.36405178513235</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.423337835398252</v>
+        <v>1.179821122748512</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.338117696562559</v>
+        <v>1.189881403213298</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.477936302609823</v>
+        <v>1.723108556196797</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.481646006847364</v>
+        <v>1.618440793494523</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.331640851779763</v>
+        <v>1.725615838955678</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.465603997071198</v>
+        <v>1.41245030320911</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.813799040488013</v>
+        <v>1.498911858314732</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.497116426016158</v>
+        <v>1.611151058504845</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.446708869434812</v>
+        <v>1.387446496167689</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.400612591937567</v>
+        <v>1.686323373764944</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.47534176275308</v>
+        <v>1.367717719129238</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.4204384024832</v>
+        <v>1.576739631041224</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.599975717828217</v>
+        <v>1.575797700420273</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.869590178483078</v>
+        <v>1.436768578975155</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.552619600756619</v>
+        <v>1.598769737345689</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.335943932139229</v>
+        <v>1.354727355389942</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.359828174199407</v>
+        <v>1.460661413968021</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.666194414839148</v>
+        <v>1.333088783599492</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.490571461164169</v>
+        <v>1.491341357171115</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.329228087565412</v>
+        <v>1.622918364768318</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.58280125069071</v>
+        <v>1.634178184723241</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/29_localizer.xlsx
+++ b/sequences/29_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
     <t>flower/flower039.jpg</t>
   </si>
   <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
   </si>
   <si>
     <t>dog/dog048.jpg</t>
   </si>
   <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
   </si>
   <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>dog/dog078.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
   </si>
   <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
   </si>
   <si>
     <t>dog/dog074.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
   <si>
     <t>flower/flower087.jpg</t>
   </si>
   <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
+    <t>flower/flower088.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
     <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.462404900781326</v>
+        <v>1.499139706617856</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.515537647411929</v>
+        <v>1.421899126839405</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.696560798578164</v>
+        <v>1.55443868141303</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.337619769021805</v>
+        <v>1.680820553513198</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.74429414325345</v>
+        <v>1.613278233706703</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.37778936376716</v>
+        <v>1.444721400257401</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1.732894542415573</v>
+        <v>1.63544116596843</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.342545434152704</v>
+        <v>1.509972418880789</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.570967893385998</v>
+        <v>1.431127451690293</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.344477509362914</v>
+        <v>1.497670603741418</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.446415882240153</v>
+        <v>1.242219428403302</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.359375810691</v>
+        <v>1.433154469438004</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.296172645606359</v>
+        <v>1.542642723832596</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.545051904932946</v>
+        <v>1.440539428597888</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.483813133659879</v>
+        <v>1.68410618433716</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.901623796808731</v>
+        <v>1.56568004935499</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.224852076436808</v>
+        <v>1.366047634343431</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.100985237775545</v>
+        <v>1.655143424309476</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.344818098424933</v>
+        <v>1.342996901067139</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.467906422705753</v>
+        <v>1.343835440344374</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.591500270678968</v>
+        <v>1.56225858251041</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.604684563636591</v>
+        <v>1.527724782002911</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.715730274400964</v>
+        <v>1.404025887792799</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.700947415326599</v>
+        <v>1.376940591788314</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.722068818551889</v>
+        <v>1.366696483335407</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.522430633748731</v>
+        <v>1.65718489847432</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.259197582352507</v>
+        <v>1.491186677821325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.48196612318644</v>
+        <v>1.570374368886277</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.366271655120384</v>
+        <v>1.289456976382914</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.737592806605625</v>
+        <v>1.487082556287926</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.606670276311099</v>
+        <v>1.365433870798514</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.386130542143851</v>
+        <v>1.502059475570867</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.485136874877683</v>
+        <v>1.521086667381526</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.689381944932185</v>
+        <v>1.371786806744835</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.18313300183278</v>
+        <v>1.421894201086746</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.707978503407542</v>
+        <v>1.356289419460406</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.484944413807953</v>
+        <v>1.603340727087795</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.55136428094916</v>
+        <v>1.375391758366519</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.48205747344318</v>
+        <v>1.598027033933819</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.520273093139956</v>
+        <v>1.456945929875316</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.691844454208104</v>
+        <v>1.382901824748235</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.481882842495057</v>
+        <v>1.292503136212976</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.376462483469807</v>
+        <v>1.462887315183164</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.394119219372995</v>
+        <v>1.26713675403482</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.593654749221387</v>
+        <v>1.432473350767323</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.28879039988496</v>
+        <v>1.43129600664509</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.580687142588148</v>
+        <v>1.468851133040511</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.599444435429102</v>
+        <v>1.704888309658869</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.589456080007162</v>
+        <v>1.61694903400627</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.259331688842679</v>
+        <v>1.507744475392079</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.699697393718534</v>
+        <v>1.532853867039998</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1.592998475661388</v>
+        <v>1.233828216920645</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.538448256900276</v>
+        <v>1.38825136493951</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.51015065379892</v>
+        <v>1.412225118263325</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.425337722408859</v>
+        <v>1.538425817460434</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.372903874882439</v>
+        <v>1.647072886704384</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.614492073404616</v>
+        <v>1.399077441699303</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.490121879167597</v>
+        <v>1.134265987745511</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.526900564056917</v>
+        <v>1.519076088969636</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.663756089483245</v>
+        <v>1.690955751021231</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.612269320247018</v>
+        <v>1.506171517286068</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.46977543699033</v>
+        <v>1.769540362977789</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.486770494316536</v>
+        <v>1.351811567498732</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.664860854849673</v>
+        <v>1.370908877042128</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.617197692680418</v>
+        <v>1.280615109620343</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.493466218416065</v>
+        <v>1.555972240722769</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.514942099956371</v>
+        <v>1.587704923648263</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.373637044575138</v>
+        <v>1.403140833919449</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.665232578348114</v>
+        <v>1.649104982400359</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.559592965871764</v>
+        <v>1.450361686070535</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.51909455811437</v>
+        <v>1.819419101370749</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.316558726992632</v>
+        <v>1.240850736890976</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.493428347848158</v>
+        <v>1.440309544540107</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.469372355843558</v>
+        <v>1.453614496234839</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.656128389928436</v>
+        <v>1.865350375512898</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.327977682002924</v>
+        <v>1.500712363312789</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.31585567675456</v>
+        <v>1.478330071379766</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.360074074767787</v>
+        <v>1.36837745763482</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.636994918844272</v>
+        <v>1.644393937324839</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.410155847286256</v>
+        <v>1.543637672939802</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.388554409248314</v>
+        <v>1.758714425782</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.707041500422836</v>
+        <v>1.320395526984401</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.498539429782472</v>
+        <v>1.3809773392252</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.601363589754886</v>
+        <v>1.630005032538901</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.4799992321178</v>
+        <v>1.499593462635027</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.48343304384996</v>
+        <v>1.518349483411169</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.599551934494034</v>
+        <v>1.380457624684666</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.226318041489489</v>
+        <v>1.565644755360103</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.45163929493447</v>
+        <v>1.481714092935812</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.527257926462414</v>
+        <v>1.36504134786853</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.599634156388666</v>
+        <v>1.538267638315357</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.476385057949556</v>
+        <v>1.624043010619345</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.506895122726822</v>
+        <v>1.709720821655962</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.74525039410825</v>
+        <v>1.443912046731605</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.413048675288809</v>
+        <v>1.009275349213494</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.352734467558371</v>
+        <v>1.295106634384207</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.350262153871544</v>
+        <v>1.552825892727568</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.487380024285969</v>
+        <v>1.455255402578518</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.421462749912656</v>
+        <v>1.429004920065449</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.363035844451569</v>
+        <v>1.428268566571691</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.269211758022002</v>
+        <v>1.439940870558604</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.677144439846457</v>
+        <v>1.621073481379583</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.586918901713257</v>
+        <v>1.665324898218868</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.393912740457045</v>
+        <v>1.42138399753167</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.669638803093046</v>
+        <v>1.385009286403349</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.542128894305541</v>
+        <v>1.431951865135966</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.29833880626377</v>
+        <v>1.548241969150362</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.607034722418498</v>
+        <v>1.235596135601199</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.555290660151209</v>
+        <v>1.446223106648769</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.315340026704476</v>
+        <v>1.469563933307871</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.376018694058223</v>
+        <v>1.723442603547982</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.566426452928991</v>
+        <v>1.492567946523758</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.471331107665018</v>
+        <v>1.463189957614741</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.50514024830098</v>
+        <v>1.460242875065444</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.803296621207247</v>
+        <v>1.046843942425929</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.307458414002204</v>
+        <v>1.40940450590716</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.953805853593604</v>
+        <v>1.341372819004365</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.498110233230496</v>
+        <v>1.558909690928589</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.369324131304179</v>
+        <v>1.552824922941932</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.58146024698128</v>
+        <v>1.478395654432592</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.535381148516468</v>
+        <v>1.591694724978892</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.49257139185667</v>
+        <v>1.67064756227683</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.347887610229652</v>
+        <v>1.844134281907102</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.55526452252225</v>
+        <v>1.302480986456787</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.424829951830695</v>
+        <v>1.686755795180439</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.487411387900605</v>
+        <v>1.399874091639952</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.548456418578884</v>
+        <v>1.579575325256378</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.507287233318197</v>
+        <v>1.764914864000422</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.483613461255639</v>
+        <v>1.590292463066013</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.72410239052336</v>
+        <v>1.692096184687752</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.612757146024107</v>
+        <v>1.537567055844168</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.430611453310094</v>
+        <v>1.30020498967766</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.501517643834501</v>
+        <v>1.239427724350335</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.501915489221809</v>
+        <v>1.393917444110114</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.563206636638902</v>
+        <v>1.395291969004295</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.383278984539311</v>
+        <v>1.414527250877926</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.787208373834224</v>
+        <v>1.368024568253311</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.633780126276172</v>
+        <v>1.718821961244273</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.576736129226585</v>
+        <v>1.7009331940935</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.491632211265152</v>
+        <v>1.519804353573228</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.582880884927152</v>
+        <v>1.514982522399045</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.204652076754668</v>
+        <v>1.467831743756454</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.626091768752254</v>
+        <v>1.297549372095742</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.606264268241153</v>
+        <v>1.671190171073558</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.457250525689493</v>
+        <v>1.474445443203901</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.084706829168002</v>
+        <v>1.424115291823197</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.695198988849685</v>
+        <v>1.592719190074069</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.738355562694053</v>
+        <v>1.246947628057976</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.57280465547973</v>
+        <v>1.50121856668401</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.791522041352844</v>
+        <v>1.501544821398617</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.795050577174124</v>
+        <v>1.310946165448923</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.403234518171349</v>
+        <v>1.348355141503732</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.403094646072402</v>
+        <v>1.634458473484268</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.795375330928145</v>
+        <v>1.693791957121717</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.428054233800059</v>
+        <v>1.411112014768334</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.59450492054074</v>
+        <v>1.649718260630547</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.135142134654008</v>
+        <v>1.43408271463823</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.650801013176704</v>
+        <v>1.832017517278934</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.488072789562024</v>
+        <v>1.343273459565109</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.454529293968034</v>
+        <v>1.486733232241618</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.483678450396444</v>
+        <v>1.476813594968343</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.542969647609444</v>
+        <v>1.75501581715622</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.469265404310011</v>
+        <v>1.294539965107367</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.358131218612574</v>
+        <v>1.644695316969515</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.517408661337447</v>
+        <v>1.490431538045285</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.472909597866767</v>
+        <v>1.630419154972798</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.640505608374858</v>
+        <v>1.392004283041586</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.598789974923003</v>
+        <v>1.551833480330927</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.484897827781298</v>
+        <v>1.547723654303845</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.603341084289485</v>
+        <v>1.597487541879509</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.590043721253907</v>
+        <v>1.466812777905675</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.496586369930334</v>
+        <v>1.230586314815735</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.574927754052509</v>
+        <v>1.504666928200781</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.683368818712271</v>
+        <v>1.575821194105759</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.281987694275901</v>
+        <v>1.566516878497269</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.361948970488422</v>
+        <v>1.50893768504763</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.37412672684172</v>
+        <v>1.656471287478495</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.618069079767632</v>
+        <v>1.15802919345169</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.567768172256982</v>
+        <v>1.332690277415965</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.387768837874817</v>
+        <v>1.100252955971142</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.454400842793119</v>
+        <v>1.452238249884052</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.689138299214713</v>
+        <v>1.76398697417103</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.447080079198604</v>
+        <v>1.500652929834563</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.781250047272015</v>
+        <v>1.575460846521012</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.595835283981968</v>
+        <v>1.301783046163674</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.644471104208143</v>
+        <v>1.269720786492691</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.655824927047918</v>
+        <v>1.220163461920263</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.644189086592123</v>
+        <v>1.786376099929457</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.718594666568183</v>
+        <v>1.521465522714747</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.532478335328918</v>
+        <v>1.382307538115321</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.326927825200978</v>
+        <v>1.543351914684134</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.265538941758711</v>
+        <v>1.556401531879524</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.636598786994697</v>
+        <v>1.537084678181767</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.532904582034379</v>
+        <v>1.580051148133975</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.608239202609367</v>
+        <v>1.460707909711578</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.179791733008566</v>
+        <v>1.655003285886128</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.381816623155447</v>
+        <v>1.428917241627712</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.240727233147977</v>
+        <v>1.420113929054102</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.56099714246236</v>
+        <v>1.190926164664172</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.244175398721548</v>
+        <v>1.307204879036506</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.664574544844511</v>
+        <v>1.668088275551102</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.246137732639185</v>
+        <v>1.785961671333466</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.36673446749021</v>
+        <v>1.456918622335093</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.340754107189376</v>
+        <v>1.524140313006085</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.411280089085252</v>
+        <v>1.305291164960502</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.482010457312406</v>
+        <v>1.490773253809033</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.487259052915368</v>
+        <v>1.48454719703867</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.612385246291341</v>
+        <v>1.323858275745393</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.309155144597246</v>
+        <v>1.414006297737652</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.576299899838012</v>
+        <v>1.562188383440146</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.324715948966285</v>
+        <v>1.600193132089716</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.51306599838386</v>
+        <v>1.602373871648311</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.445764048363968</v>
+        <v>1.276461734377701</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.591036260652874</v>
+        <v>1.204199976144795</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.545358809427495</v>
+        <v>1.304232867562418</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.409054693205447</v>
+        <v>1.285576171139012</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.409836994509344</v>
+        <v>1.344882583406554</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.800007352807813</v>
+        <v>1.452909010496784</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.477764561197543</v>
+        <v>1.503451884056053</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.396903569787494</v>
+        <v>1.443115702561196</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.770342162128931</v>
+        <v>1.389414511877037</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.395893320652824</v>
+        <v>1.251791544348945</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.721637137392832</v>
+        <v>1.441382652704101</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.256354393876087</v>
+        <v>1.627399676626163</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.374582056781137</v>
+        <v>1.295097343467101</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.44471721255753</v>
+        <v>1.658953396627942</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.293044872444959</v>
+        <v>1.248119926420697</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.802804648701686</v>
+        <v>1.727104120382432</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.329754030851639</v>
+        <v>1.722648240169644</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.515717468713255</v>
+        <v>1.264985634034157</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.401454255943291</v>
+        <v>1.349651119312079</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.519817864041382</v>
+        <v>1.566276870152087</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.623466443115122</v>
+        <v>1.557937723117785</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.591043613165698</v>
+        <v>1.514027745043855</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.36405178513235</v>
+        <v>1.649973627249984</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.179821122748512</v>
+        <v>1.456312383091838</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.189881403213298</v>
+        <v>1.524666543982307</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.723108556196797</v>
+        <v>1.286098182643256</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.618440793494523</v>
+        <v>1.604635316122136</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.725615838955678</v>
+        <v>1.574708565669235</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.41245030320911</v>
+        <v>1.354226242571254</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.498911858314732</v>
+        <v>1.837116159707434</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.611151058504845</v>
+        <v>1.172420214819484</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.387446496167689</v>
+        <v>1.410983783647826</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.686323373764944</v>
+        <v>1.60120226789818</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.367717719129238</v>
+        <v>1.471935563150472</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.576739631041224</v>
+        <v>1.780448011759954</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.575797700420273</v>
+        <v>1.275133172268202</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.436768578975155</v>
+        <v>1.610783778648856</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.598769737345689</v>
+        <v>1.402330897436296</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.354727355389942</v>
+        <v>1.34311121721978</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.460661413968021</v>
+        <v>1.48164507252877</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.333088783599492</v>
+        <v>1.2453632239334</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.491341357171115</v>
+        <v>1.555605447426324</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.622918364768318</v>
+        <v>1.496726473118407</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.634178184723241</v>
+        <v>1.595284952741391</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/29_localizer.xlsx
+++ b/sequences/29_localizer.xlsx
@@ -31,781 +31,781 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
   </si>
   <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
   </si>
   <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
+    <t>flower/flower064.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
     <t>flower/flower062.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
   </si>
   <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
     <t>house/house079.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>house/house086.jpg</t>
   </si>
   <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
     <t>dog/dog080.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
     <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
   </si>
   <si>
     <t>house/house092.jpg</t>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.499139706617856</v>
+        <v>1.456705757760143</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.421899126839405</v>
+        <v>1.540960453388435</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.55443868141303</v>
+        <v>1.484691890457076</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.680820553513198</v>
+        <v>1.40156297142556</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.613278233706703</v>
+        <v>1.422534293685097</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.444721400257401</v>
+        <v>1.849090014954582</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.63544116596843</v>
+        <v>1.631066010435432</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.509972418880789</v>
+        <v>1.645233717737887</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.431127451690293</v>
+        <v>1.63559277749962</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.497670603741418</v>
+        <v>1.598821909156799</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.242219428403302</v>
+        <v>1.756825536691053</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.433154469438004</v>
+        <v>1.614217378299556</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.542642723832596</v>
+        <v>1.374915927285413</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.440539428597888</v>
+        <v>1.429790642159338</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.68410618433716</v>
+        <v>1.318083550780461</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.56568004935499</v>
+        <v>1.411095823133507</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.366047634343431</v>
+        <v>1.459550238095336</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.655143424309476</v>
+        <v>1.391262786134094</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.342996901067139</v>
+        <v>1.653279232853553</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.343835440344374</v>
+        <v>1.689209463263859</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.56225858251041</v>
+        <v>1.369051855871602</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.527724782002911</v>
+        <v>1.311430827894379</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.404025887792799</v>
+        <v>1.532661941292354</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.376940591788314</v>
+        <v>1.562075743752921</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.366696483335407</v>
+        <v>1.369355371161959</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.65718489847432</v>
+        <v>1.430197680665252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.491186677821325</v>
+        <v>1.570543090979771</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.570374368886277</v>
+        <v>1.642788901264681</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.289456976382914</v>
+        <v>1.587700521452828</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.487082556287926</v>
+        <v>1.295677889546434</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.365433870798514</v>
+        <v>1.559819275412055</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.502059475570867</v>
+        <v>1.584311404877518</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.521086667381526</v>
+        <v>1.408981169370333</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.371786806744835</v>
+        <v>1.606339410470681</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.421894201086746</v>
+        <v>1.538765665786905</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.356289419460406</v>
+        <v>1.17888154990862</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.603340727087795</v>
+        <v>1.661683786579481</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.375391758366519</v>
+        <v>1.512286986720712</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.598027033933819</v>
+        <v>1.24824530724859</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.456945929875316</v>
+        <v>1.755273053962982</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.382901824748235</v>
+        <v>1.493324101116882</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.292503136212976</v>
+        <v>1.489868345554967</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.462887315183164</v>
+        <v>1.264579940878073</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.26713675403482</v>
+        <v>1.806486289308749</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.432473350767323</v>
+        <v>1.475237909376772</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.43129600664509</v>
+        <v>1.294708964792119</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.468851133040511</v>
+        <v>1.417756575603728</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.704888309658869</v>
+        <v>1.395614894256613</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.61694903400627</v>
+        <v>1.316045366798385</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.507744475392079</v>
+        <v>1.516212618013081</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.532853867039998</v>
+        <v>1.728528718272751</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.233828216920645</v>
+        <v>1.561506043787333</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.38825136493951</v>
+        <v>1.863419705206294</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.412225118263325</v>
+        <v>1.40802786941932</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.538425817460434</v>
+        <v>1.595229340099739</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.647072886704384</v>
+        <v>1.679688716859094</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.399077441699303</v>
+        <v>1.481611100918038</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.134265987745511</v>
+        <v>1.405789268884326</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.519076088969636</v>
+        <v>1.570779574396736</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.690955751021231</v>
+        <v>1.217852238902503</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.506171517286068</v>
+        <v>1.753253991362261</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.769540362977789</v>
+        <v>1.576242082428286</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.351811567498732</v>
+        <v>1.427870641937472</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.370908877042128</v>
+        <v>1.236764651128525</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.280615109620343</v>
+        <v>1.58059228327568</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.555972240722769</v>
+        <v>1.256703366249865</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.587704923648263</v>
+        <v>1.389133980943162</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.403140833919449</v>
+        <v>1.637330536405513</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.649104982400359</v>
+        <v>1.618940711127221</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.450361686070535</v>
+        <v>1.633187307619491</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.819419101370749</v>
+        <v>1.291100908100993</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.240850736890976</v>
+        <v>1.585198515994434</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.440309544540107</v>
+        <v>1.734616100900462</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.453614496234839</v>
+        <v>1.578866189300936</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.865350375512898</v>
+        <v>1.488948749158324</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.500712363312789</v>
+        <v>1.526660275585534</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.478330071379766</v>
+        <v>1.7081445784666</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.36837745763482</v>
+        <v>1.485493168019515</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.644393937324839</v>
+        <v>1.702897171148362</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.543637672939802</v>
+        <v>1.48343095007191</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.758714425782</v>
+        <v>1.743491907353793</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.320395526984401</v>
+        <v>1.343828488687785</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.3809773392252</v>
+        <v>1.356342679391375</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.630005032538901</v>
+        <v>1.723416167301972</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.499593462635027</v>
+        <v>1.121513068844497</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.518349483411169</v>
+        <v>1.695704939865042</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.380457624684666</v>
+        <v>1.553793225011072</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1.565644755360103</v>
+        <v>1.531088846384583</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.481714092935812</v>
+        <v>1.368484169234128</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.36504134786853</v>
+        <v>1.304389832293432</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.538267638315357</v>
+        <v>1.371649667628948</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.624043010619345</v>
+        <v>1.415615449528025</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.709720821655962</v>
+        <v>1.409264959730329</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.443912046731605</v>
+        <v>1.378610518674896</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.009275349213494</v>
+        <v>1.427577938512801</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.295106634384207</v>
+        <v>1.274039080392114</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.552825892727568</v>
+        <v>1.707456677117102</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.455255402578518</v>
+        <v>1.342061148497461</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.429004920065449</v>
+        <v>1.468708215709415</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.428268566571691</v>
+        <v>1.618604288703966</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.439940870558604</v>
+        <v>1.453353321089154</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.621073481379583</v>
+        <v>1.429682459457056</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.665324898218868</v>
+        <v>1.552780041500583</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.42138399753167</v>
+        <v>1.631717033441217</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.385009286403349</v>
+        <v>1.55875374554577</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.431951865135966</v>
+        <v>1.372901185132341</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.548241969150362</v>
+        <v>1.529519606219858</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.235596135601199</v>
+        <v>1.641882004889553</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.446223106648769</v>
+        <v>1.707560831252771</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.469563933307871</v>
+        <v>1.416785191087134</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.723442603547982</v>
+        <v>1.410387978715554</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.492567946523758</v>
+        <v>1.658017937534531</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.463189957614741</v>
+        <v>1.725726260439999</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.460242875065444</v>
+        <v>1.598042320842842</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.046843942425929</v>
+        <v>1.654422218501631</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.40940450590716</v>
+        <v>1.469007058863958</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.341372819004365</v>
+        <v>1.541062405855122</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.558909690928589</v>
+        <v>1.446618917531912</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.552824922941932</v>
+        <v>1.519523071430267</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.478395654432592</v>
+        <v>1.620854802101153</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.591694724978892</v>
+        <v>1.530193326935931</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.67064756227683</v>
+        <v>1.542849778684875</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.844134281907102</v>
+        <v>1.605717648092024</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.302480986456787</v>
+        <v>1.711752093186416</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.686755795180439</v>
+        <v>1.634269927492324</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.399874091639952</v>
+        <v>1.49362228717432</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.579575325256378</v>
+        <v>1.312569164557698</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.764914864000422</v>
+        <v>1.476379713241394</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.590292463066013</v>
+        <v>1.257378726410242</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.692096184687752</v>
+        <v>1.404885914969171</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.537567055844168</v>
+        <v>1.615011404528983</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.30020498967766</v>
+        <v>1.33905952475054</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.239427724350335</v>
+        <v>1.489513050317996</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.393917444110114</v>
+        <v>1.252219795588939</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.395291969004295</v>
+        <v>1.605491334870495</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.414527250877926</v>
+        <v>1.710646008999504</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.368024568253311</v>
+        <v>1.477981200715305</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.718821961244273</v>
+        <v>1.358461134007127</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.7009331940935</v>
+        <v>1.516489418104355</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.519804353573228</v>
+        <v>1.554455434814685</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.514982522399045</v>
+        <v>1.509071352569242</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.467831743756454</v>
+        <v>1.658667171051579</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.297549372095742</v>
+        <v>1.689689854534147</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.671190171073558</v>
+        <v>1.457934849353159</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.474445443203901</v>
+        <v>1.427128115490467</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.424115291823197</v>
+        <v>1.710410720893804</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.592719190074069</v>
+        <v>1.378428783057781</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.246947628057976</v>
+        <v>1.465611933246511</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.50121856668401</v>
+        <v>1.668760285218328</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.501544821398617</v>
+        <v>1.671610309383204</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.310946165448923</v>
+        <v>1.374016015023874</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.348355141503732</v>
+        <v>1.597870603133924</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.634458473484268</v>
+        <v>1.362391669564048</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.693791957121717</v>
+        <v>1.588644601357009</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.411112014768334</v>
+        <v>1.502340740227799</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.649718260630547</v>
+        <v>1.363841713430787</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.43408271463823</v>
+        <v>1.598646183251311</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.832017517278934</v>
+        <v>1.543190847469236</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.343273459565109</v>
+        <v>1.447702860451546</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.486733232241618</v>
+        <v>1.29787313578447</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.476813594968343</v>
+        <v>1.761907615266103</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.75501581715622</v>
+        <v>1.42140387882011</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.294539965107367</v>
+        <v>1.479076700993034</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.644695316969515</v>
+        <v>1.526334805166789</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.490431538045285</v>
+        <v>1.462503371950834</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.630419154972798</v>
+        <v>1.504092443167105</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.392004283041586</v>
+        <v>1.534685189365707</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.551833480330927</v>
+        <v>1.4325718527275</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.547723654303845</v>
+        <v>1.707377877844122</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.597487541879509</v>
+        <v>1.454288734516685</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.466812777905675</v>
+        <v>1.532201156967755</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.230586314815735</v>
+        <v>1.565824132155661</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.504666928200781</v>
+        <v>1.563102722138378</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.575821194105759</v>
+        <v>1.662248138910673</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.566516878497269</v>
+        <v>1.449756539252132</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.50893768504763</v>
+        <v>1.420571710583605</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.656471287478495</v>
+        <v>1.577189520268078</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.15802919345169</v>
+        <v>1.933939840673582</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.332690277415965</v>
+        <v>1.707129949643773</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.100252955971142</v>
+        <v>1.629002173981025</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.452238249884052</v>
+        <v>1.599919473417521</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.76398697417103</v>
+        <v>1.662763114002789</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.500652929834563</v>
+        <v>1.380564553814729</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.575460846521012</v>
+        <v>1.498927600933927</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.301783046163674</v>
+        <v>1.56869188621874</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.269720786492691</v>
+        <v>1.28947300391159</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.220163461920263</v>
+        <v>1.60128067685717</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.786376099929457</v>
+        <v>1.660586774098659</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.521465522714747</v>
+        <v>1.495758159899159</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.382307538115321</v>
+        <v>1.676807641525347</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.543351914684134</v>
+        <v>1.312931497304258</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.556401531879524</v>
+        <v>1.525715893143787</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.537084678181767</v>
+        <v>1.27344765483937</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.580051148133975</v>
+        <v>1.446366276529772</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.460707909711578</v>
+        <v>1.727550204544376</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.655003285886128</v>
+        <v>1.589520038436859</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.428917241627712</v>
+        <v>1.302008638409951</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.420113929054102</v>
+        <v>1.52312322485306</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.190926164664172</v>
+        <v>1.084472223171148</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.307204879036506</v>
+        <v>1.415586212419852</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.668088275551102</v>
+        <v>1.596928653072597</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.785961671333466</v>
+        <v>1.728612756043929</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.456918622335093</v>
+        <v>1.418208493878663</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.524140313006085</v>
+        <v>1.685755727005137</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.305291164960502</v>
+        <v>1.708814122428404</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.490773253809033</v>
+        <v>1.468846713721448</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.48454719703867</v>
+        <v>1.178532691416002</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.323858275745393</v>
+        <v>1.608981723587858</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.414006297737652</v>
+        <v>1.405206119877935</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.562188383440146</v>
+        <v>1.57732359518603</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.600193132089716</v>
+        <v>1.52769878538933</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.602373871648311</v>
+        <v>1.587623687179986</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.276461734377701</v>
+        <v>1.806622153899565</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.204199976144795</v>
+        <v>1.545438599457206</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.304232867562418</v>
+        <v>1.463144516973425</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.285576171139012</v>
+        <v>1.498059724960768</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.344882583406554</v>
+        <v>1.396516030836937</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.452909010496784</v>
+        <v>1.491841030713521</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.503451884056053</v>
+        <v>1.587027681922333</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.443115702561196</v>
+        <v>1.567528678625032</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.389414511877037</v>
+        <v>1.294207512811395</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.251791544348945</v>
+        <v>1.668434387816349</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.441382652704101</v>
+        <v>1.441738921428129</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.627399676626163</v>
+        <v>1.253255469853813</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.295097343467101</v>
+        <v>1.425099847079626</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.658953396627942</v>
+        <v>1.507135646586803</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.248119926420697</v>
+        <v>1.673779906042479</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.727104120382432</v>
+        <v>1.346172207194535</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.722648240169644</v>
+        <v>1.653446295313432</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.264985634034157</v>
+        <v>1.761769763186553</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.349651119312079</v>
+        <v>1.449585933579787</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.566276870152087</v>
+        <v>1.659577755299727</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.557937723117785</v>
+        <v>1.732485282961765</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.514027745043855</v>
+        <v>1.521812417498433</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.649973627249984</v>
+        <v>1.678369245250142</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.456312383091838</v>
+        <v>1.478730124708746</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.524666543982307</v>
+        <v>1.559586342432162</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.286098182643256</v>
+        <v>1.566104193778189</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.604635316122136</v>
+        <v>1.596674823423744</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.574708565669235</v>
+        <v>1.604373754857893</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.354226242571254</v>
+        <v>1.465460675689457</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.837116159707434</v>
+        <v>1.379241151198656</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.172420214819484</v>
+        <v>1.465720900670848</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.410983783647826</v>
+        <v>1.331765044011135</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.60120226789818</v>
+        <v>1.559322796239219</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.471935563150472</v>
+        <v>1.724553125733029</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.780448011759954</v>
+        <v>1.58308203484711</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.275133172268202</v>
+        <v>1.613669553591304</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.610783778648856</v>
+        <v>1.677723977787002</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.402330897436296</v>
+        <v>1.585222683637227</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.34311121721978</v>
+        <v>1.382259947036518</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.48164507252877</v>
+        <v>1.586670566011283</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="F254">
-        <v>1.2453632239334</v>
+        <v>1.636951890526427</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.555605447426324</v>
+        <v>1.425662594613067</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.496726473118407</v>
+        <v>1.426554753492994</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.595284952741391</v>
+        <v>1.550879814188964</v>
       </c>
     </row>
   </sheetData>
